--- a/data/china_ie_partner/2017-09.xlsx
+++ b/data/china_ie_partner/2017-09.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jens/Downloads/china_ie/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jens/Documents/GitHub/ada-2020-project-milestone-p3-p3_lovela-data-science/data/china_ie_partner/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECA5D03A-4E9F-9A4B-A45F-B88B7AC4DA76}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73DCDFFC-BD4D-D14A-8FF9-9A9FCA86BE46}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="260" yWindow="460" windowWidth="28260" windowHeight="16400" xr2:uid="{8F74DAF6-1138-2E45-873E-CC3CE452E3A4}"/>
   </bookViews>
@@ -36,669 +36,9 @@
     <t>进口</t>
   </si>
   <si>
-    <t>阿富汗</t>
-  </si>
-  <si>
-    <t>巴林</t>
-  </si>
-  <si>
-    <t>孟加拉国</t>
-  </si>
-  <si>
-    <t>不丹</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
-    <t>文莱</t>
-  </si>
-  <si>
-    <t>缅甸</t>
-  </si>
-  <si>
-    <t>柬埔寨</t>
-  </si>
-  <si>
-    <t>塞浦路斯</t>
-  </si>
-  <si>
-    <t>朝鲜</t>
-  </si>
-  <si>
-    <t>印度</t>
-  </si>
-  <si>
-    <t>印度尼西亚</t>
-  </si>
-  <si>
-    <t>伊朗</t>
-  </si>
-  <si>
-    <t>伊拉克</t>
-  </si>
-  <si>
-    <t>以色列</t>
-  </si>
-  <si>
-    <t>日本</t>
-  </si>
-  <si>
-    <t>约旦</t>
-  </si>
-  <si>
-    <t>科威特</t>
-  </si>
-  <si>
-    <t>老挝</t>
-  </si>
-  <si>
-    <t>黎巴嫩</t>
-  </si>
-  <si>
-    <t>马尔代夫</t>
-  </si>
-  <si>
-    <t>蒙古</t>
-  </si>
-  <si>
-    <t>阿曼</t>
-  </si>
-  <si>
-    <t>巴基斯坦</t>
-  </si>
-  <si>
-    <t>巴勒斯坦</t>
-  </si>
-  <si>
-    <t>菲律宾</t>
-  </si>
-  <si>
-    <t>卡塔尔</t>
-  </si>
-  <si>
-    <t>沙特阿拉伯</t>
-  </si>
-  <si>
-    <t>新加坡</t>
-  </si>
-  <si>
-    <t>韩国</t>
-  </si>
-  <si>
-    <t>斯里兰卡</t>
-  </si>
-  <si>
-    <t>叙利亚</t>
-  </si>
-  <si>
-    <t>泰国</t>
-  </si>
-  <si>
-    <t>土耳其</t>
-  </si>
-  <si>
-    <t>阿联酋</t>
-  </si>
-  <si>
-    <t>也门</t>
-  </si>
-  <si>
-    <t>越南</t>
-  </si>
-  <si>
-    <t>中国</t>
-  </si>
-  <si>
-    <t>东帝汶</t>
-  </si>
-  <si>
-    <t>哈萨克斯坦</t>
-  </si>
-  <si>
-    <t>吉尔吉斯斯坦</t>
-  </si>
-  <si>
-    <t>塔吉克斯坦</t>
-  </si>
-  <si>
-    <t>土库曼斯坦</t>
-  </si>
-  <si>
-    <t>亚洲其他国家(地区)</t>
-  </si>
-  <si>
-    <t>非洲</t>
-  </si>
-  <si>
-    <t>阿尔及利亚</t>
-  </si>
-  <si>
-    <t>安哥拉</t>
-  </si>
-  <si>
-    <t>贝宁</t>
-  </si>
-  <si>
-    <t>博茨瓦纳</t>
-  </si>
-  <si>
-    <t>布隆迪</t>
-  </si>
-  <si>
-    <t>加那利群岛</t>
-  </si>
-  <si>
-    <t>佛得角</t>
-  </si>
-  <si>
-    <t>中非</t>
-  </si>
-  <si>
-    <t>塞卜泰(休达)</t>
-  </si>
-  <si>
-    <t>乍得</t>
-  </si>
-  <si>
-    <t>科摩罗</t>
-  </si>
-  <si>
-    <t>刚果(布)</t>
-  </si>
-  <si>
-    <t>吉布提</t>
-  </si>
-  <si>
-    <t>埃及</t>
-  </si>
-  <si>
-    <t>赤道几内亚</t>
-  </si>
-  <si>
-    <t>埃塞俄比亚</t>
-  </si>
-  <si>
-    <t>加蓬</t>
-  </si>
-  <si>
-    <t>冈比亚</t>
-  </si>
-  <si>
-    <t>加纳</t>
-  </si>
-  <si>
-    <t>几内亚</t>
-  </si>
-  <si>
-    <t>几内亚比绍</t>
-  </si>
-  <si>
-    <t>科特迪瓦</t>
-  </si>
-  <si>
-    <t>肯尼亚</t>
-  </si>
-  <si>
-    <t>利比里亚</t>
-  </si>
-  <si>
-    <t>利比亚</t>
-  </si>
-  <si>
-    <t>马达加斯加</t>
-  </si>
-  <si>
-    <t>马拉维</t>
-  </si>
-  <si>
-    <t>毛里塔尼亚</t>
-  </si>
-  <si>
-    <t>毛里求斯</t>
-  </si>
-  <si>
-    <t>摩洛哥</t>
-  </si>
-  <si>
-    <t>莫桑比克</t>
-  </si>
-  <si>
-    <t>纳米比亚</t>
-  </si>
-  <si>
-    <t>尼日尔</t>
-  </si>
-  <si>
-    <t>尼日利亚</t>
-  </si>
-  <si>
-    <t>留尼汪</t>
-  </si>
-  <si>
-    <t>卢旺达</t>
-  </si>
-  <si>
-    <t>圣多美和普林西比</t>
-  </si>
-  <si>
-    <t>塞内加尔</t>
-  </si>
-  <si>
-    <t>塞舌尔</t>
-  </si>
-  <si>
-    <t>塞拉利昂</t>
-  </si>
-  <si>
-    <t>索马里</t>
-  </si>
-  <si>
-    <t>西撒哈拉</t>
-  </si>
-  <si>
-    <t>苏丹</t>
-  </si>
-  <si>
-    <t>坦桑尼亚</t>
-  </si>
-  <si>
-    <t>多哥</t>
-  </si>
-  <si>
-    <t>突尼斯</t>
-  </si>
-  <si>
-    <t>乌干达</t>
-  </si>
-  <si>
-    <t>布基纳法索</t>
-  </si>
-  <si>
-    <t>刚果(金)</t>
-  </si>
-  <si>
-    <t>津巴布韦</t>
-  </si>
-  <si>
-    <t>梅利利亚</t>
-  </si>
-  <si>
-    <t>斯威士兰</t>
-  </si>
-  <si>
-    <t>厄立特里亚</t>
-  </si>
-  <si>
-    <t>马约特</t>
-  </si>
-  <si>
-    <t>南苏丹共和国</t>
-  </si>
-  <si>
-    <t>非洲其他国家(地区)</t>
-  </si>
-  <si>
-    <t>比利时</t>
-  </si>
-  <si>
-    <t>丹麦</t>
-  </si>
-  <si>
-    <t>英国</t>
-  </si>
-  <si>
-    <t>德国</t>
-  </si>
-  <si>
-    <t>法国</t>
-  </si>
-  <si>
-    <t>爱尔兰</t>
-  </si>
-  <si>
-    <t>意大利</t>
-  </si>
-  <si>
-    <t>卢森堡</t>
-  </si>
-  <si>
-    <t>荷兰</t>
-  </si>
-  <si>
-    <t>希腊</t>
-  </si>
-  <si>
-    <t>葡萄牙</t>
-  </si>
-  <si>
-    <t>西班牙</t>
-  </si>
-  <si>
-    <t>阿尔巴尼亚</t>
-  </si>
-  <si>
-    <t>奥地利</t>
-  </si>
-  <si>
-    <t>保加利亚</t>
-  </si>
-  <si>
-    <t>芬兰</t>
-  </si>
-  <si>
-    <t>直布罗陀</t>
-  </si>
-  <si>
-    <t>匈牙利</t>
-  </si>
-  <si>
-    <t>冰岛</t>
-  </si>
-  <si>
-    <t>列支敦士登</t>
-  </si>
-  <si>
-    <t>马耳他</t>
-  </si>
-  <si>
-    <t>摩纳哥</t>
-  </si>
-  <si>
-    <t>挪威</t>
-  </si>
-  <si>
-    <t>波兰</t>
-  </si>
-  <si>
-    <t>罗马尼亚</t>
-  </si>
-  <si>
-    <t>圣马力诺</t>
-  </si>
-  <si>
-    <t>瑞典</t>
-  </si>
-  <si>
-    <t>瑞士</t>
-  </si>
-  <si>
-    <t>爱沙尼亚</t>
-  </si>
-  <si>
-    <t>拉脱维亚</t>
-  </si>
-  <si>
-    <t>格鲁吉亚</t>
-  </si>
-  <si>
-    <t>亚美尼亚</t>
-  </si>
-  <si>
-    <t>阿塞拜疆</t>
-  </si>
-  <si>
-    <t>白俄罗斯</t>
-  </si>
-  <si>
-    <t>摩尔多瓦</t>
-  </si>
-  <si>
-    <t>俄罗斯联邦</t>
-  </si>
-  <si>
-    <t>克罗地亚</t>
-  </si>
-  <si>
-    <t>捷克</t>
-  </si>
-  <si>
-    <t>斯洛伐克</t>
-  </si>
-  <si>
-    <t>前南马其顿</t>
-  </si>
-  <si>
-    <t>波黑</t>
-  </si>
-  <si>
-    <t>梵蒂冈城国</t>
-  </si>
-  <si>
-    <t>法罗群岛</t>
-  </si>
-  <si>
-    <t>塞尔维亚</t>
-  </si>
-  <si>
-    <t>黑山</t>
-  </si>
-  <si>
-    <t>拉丁美洲</t>
-  </si>
-  <si>
-    <t>安提瓜和巴布达</t>
-  </si>
-  <si>
-    <t>阿根廷</t>
-  </si>
-  <si>
-    <t>阿鲁巴</t>
-  </si>
-  <si>
-    <t>巴哈马</t>
-  </si>
-  <si>
-    <t>巴巴多斯</t>
-  </si>
-  <si>
-    <t>伯利兹</t>
-  </si>
-  <si>
-    <t>玻利维亚</t>
-  </si>
-  <si>
-    <t>博内尔</t>
-  </si>
-  <si>
-    <t>巴西</t>
-  </si>
-  <si>
-    <t>开曼群岛</t>
-  </si>
-  <si>
-    <t>智利</t>
-  </si>
-  <si>
-    <t>哥伦比亚</t>
-  </si>
-  <si>
-    <t>多米尼克</t>
-  </si>
-  <si>
-    <t>哥斯达黎加</t>
-  </si>
-  <si>
-    <t>古巴</t>
-  </si>
-  <si>
-    <t>库腊索岛</t>
-  </si>
-  <si>
-    <t>多米尼加共和国</t>
-  </si>
-  <si>
-    <t>厄瓜多尔</t>
-  </si>
-  <si>
-    <t>法属圭亚那</t>
-  </si>
-  <si>
-    <t>格林纳达</t>
-  </si>
-  <si>
-    <t>瓜德罗普</t>
-  </si>
-  <si>
-    <t>危地马拉</t>
-  </si>
-  <si>
-    <t>圭亚那</t>
-  </si>
-  <si>
-    <t>海地</t>
-  </si>
-  <si>
-    <t>洪都拉斯</t>
-  </si>
-  <si>
-    <t>牙买加</t>
-  </si>
-  <si>
-    <t>马提尼克</t>
-  </si>
-  <si>
-    <t>墨西哥</t>
-  </si>
-  <si>
-    <t>蒙特塞拉特</t>
-  </si>
-  <si>
-    <t>尼加拉瓜</t>
-  </si>
-  <si>
-    <t>巴拿马</t>
-  </si>
-  <si>
-    <t>巴拉圭</t>
-  </si>
-  <si>
-    <t>秘鲁</t>
-  </si>
-  <si>
-    <t>圣卢西亚</t>
-  </si>
-  <si>
-    <t>圣马丁岛</t>
-  </si>
-  <si>
-    <t>圣文森特和格林纳丁斯</t>
-  </si>
-  <si>
-    <t>萨尔瓦多</t>
-  </si>
-  <si>
-    <t>特立尼达和多巴哥</t>
-  </si>
-  <si>
-    <t>特克斯和凯科斯群岛</t>
-  </si>
-  <si>
-    <t>委内瑞拉</t>
-  </si>
-  <si>
-    <t>英属维尔京群岛</t>
-  </si>
-  <si>
-    <t>圣基茨和尼维斯</t>
-  </si>
-  <si>
-    <t>圣皮埃尔和密克隆</t>
-  </si>
-  <si>
-    <t>荷属安的列斯</t>
-  </si>
-  <si>
-    <t>拉丁美洲其他国家(地区)</t>
-  </si>
-  <si>
-    <t>北美洲</t>
-  </si>
-  <si>
-    <t>加拿大</t>
-  </si>
-  <si>
-    <t>美国</t>
-  </si>
-  <si>
-    <t>百慕大</t>
-  </si>
-  <si>
-    <t>北美洲其他国家(地区)</t>
-  </si>
-  <si>
-    <t>斐济</t>
-  </si>
-  <si>
-    <t>盖比群岛</t>
-  </si>
-  <si>
-    <t>马克萨斯群岛</t>
-  </si>
-  <si>
-    <t>新喀里多尼亚</t>
-  </si>
-  <si>
-    <t>瓦努阿图</t>
-  </si>
-  <si>
-    <t>新西兰</t>
-  </si>
-  <si>
-    <t>诺福克岛</t>
-  </si>
-  <si>
-    <t>社会群岛</t>
-  </si>
-  <si>
-    <t>所罗门群岛</t>
-  </si>
-  <si>
-    <t>汤加</t>
-  </si>
-  <si>
-    <t>土阿莫土群岛</t>
-  </si>
-  <si>
-    <t>土布艾群岛</t>
-  </si>
-  <si>
-    <t>萨摩亚</t>
-  </si>
-  <si>
-    <t>基里巴斯</t>
-  </si>
-  <si>
-    <t>图瓦卢</t>
-  </si>
-  <si>
-    <t>密克罗尼西亚联邦</t>
-  </si>
-  <si>
-    <t>马绍尔群岛</t>
-  </si>
-  <si>
-    <t>帕劳</t>
-  </si>
-  <si>
-    <t>法属波利尼西亚</t>
-  </si>
-  <si>
-    <t>瓦利斯和浮图纳</t>
-  </si>
-  <si>
-    <t>国(地)别不详的</t>
-  </si>
-  <si>
-    <t>中国香港</t>
-  </si>
-  <si>
-    <t>马来西亚 </t>
-  </si>
-  <si>
-    <t>中国台湾</t>
-  </si>
-  <si>
     <t>month</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -706,83 +46,987 @@
     <t>year</t>
   </si>
   <si>
-    <t>澳门</t>
-  </si>
-  <si>
-    <t>尼泊尔联邦民主共和国</t>
-  </si>
-  <si>
-    <t>乌兹别克斯坦</t>
-  </si>
-  <si>
-    <t>喀麦隆</t>
-  </si>
-  <si>
-    <t>马里</t>
-  </si>
-  <si>
-    <t>南非</t>
-  </si>
-  <si>
-    <t>赞比亚</t>
-  </si>
-  <si>
-    <t>莱索托</t>
-  </si>
-  <si>
-    <t>安道尔</t>
-  </si>
-  <si>
-    <t>立陶宛</t>
-  </si>
-  <si>
-    <t>乌克兰</t>
-  </si>
-  <si>
-    <t>斯洛文尼亚</t>
-  </si>
-  <si>
-    <t>欧洲其他国家(地区)</t>
-  </si>
-  <si>
-    <t>波多黎各</t>
-  </si>
-  <si>
-    <t>萨巴</t>
-  </si>
-  <si>
-    <t>苏里南</t>
-  </si>
-  <si>
-    <t>乌拉圭</t>
-  </si>
-  <si>
-    <t>格陵兰</t>
-  </si>
-  <si>
-    <t>大洋洲</t>
-  </si>
-  <si>
-    <t>澳大利亚</t>
-  </si>
-  <si>
-    <t>库克群岛</t>
-  </si>
-  <si>
-    <t>瑙鲁</t>
-  </si>
-  <si>
-    <t>巴布亚新几内亚</t>
-  </si>
-  <si>
-    <t>大洋洲其他国家(地区)</t>
+    <t>Afghanistan</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bahrian</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bangladesh</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bhutan</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Brunei</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Myanmar</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cambodia</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cyprus</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Korea,DPR</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>China Hong Kong</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>India</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Indonesia</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Iran</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Iraq</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Israel</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Japan</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jordan</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kuwait</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lao PDR</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lebanon</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>China Macau</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Malaysia</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maldives</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mongolia</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nepal,FDR</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oman</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pakistan</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Palestine</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Philippines</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Qatar</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Saudi Arabia</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Singapore</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Korea,Rep.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sri Lanka</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Syrian Arab Republic</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thailand</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Turkey</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>United Arab Emirates</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yemen</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Viet Nam</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>China</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>China Taiwan</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Timor-Leste</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kazakhstan</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kyrgyzstan</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tajikistan</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Turkmenistan</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Uzbekistan</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oth.Asia nes</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Africa</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Algeria</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Angola</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Benin</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Botswana</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Burundi</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cameroon</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Canary Islands</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cape Verde</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Central African Rep.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ceuta</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chad</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Comoros</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Congo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Djibouti</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Egypt</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Equatorial Guinea</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ethiopia</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gabon</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gambia</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ghana</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Guinea</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Guinea-Bissau</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cote d'Ivoire</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kenya</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Liberia</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Libyan Arab Jamahiriya</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Madagascar</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Malawi</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mali</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mauritania</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mauritius</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Morocco</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mozambique</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Namibia</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Niger</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nigeria</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reunion</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rwanda</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sao Tome and Principe</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Senegal</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Seychelles</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sierra Leone</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Somalia</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>South Africa</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Western Sahara</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sudan</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tanzania</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Togo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tunisia</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Uganda</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Burkina Faso</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Congo,DR</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zambia</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zimbabwe</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lesotho</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Melilla</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Swaziland</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eritrea</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mayotte</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Republic of South Sudan</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oth.Afr.nes</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Belgium</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Denmark</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Germany</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>France</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ireland</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Italy</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Luxembourg</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Netherlands</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Greece</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Portugal</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spain</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Albania</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Andorra</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Austria</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bulgaria</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Finland</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gibraltar</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hungary</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Iceland</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Liechtenstein</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Malta</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monaco</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Norway</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Poland</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Romania</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>San Marino</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sweden</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Switzerland</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Estonia</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Latvia</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lithuania</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Georgia</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Armenia</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Azerbaijan</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Belarus</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Moldova</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Russian Federation</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ukraine</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Slovenia</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Croatia</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Czech Republic</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Slovakia</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Macedonia,FYR</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bosnia and Hercegovina</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vatican City State</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Faroe Islands</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Serbia</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Montenegro</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oth.Eur.nes</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Latin America</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Antigua and Barbuda</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Argentina</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aruba</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bahamas</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Barbados</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Belize</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bolivia</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bonaire</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Brazil</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cayman Islands</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chile</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Colombia</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dominica</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Costa Rica</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cuba</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Curacao</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dominican Republic</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ecuador</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>French Guiana</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Grenada</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Guadeloupe</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Guatemala</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Guyana</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Haiti</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Honduras</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jamaica</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Martinique</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mexico</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Montserrat</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nicaragua</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Panama</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Paraguay</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Peru</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Puerto Rico</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Saba</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Saint Lucia</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Saint Martin Islands</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>St.Vincent&amp;Grenadines</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>El Salvador</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Suriname</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trinidad and Tobago</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Turks&amp;Caicos Islands</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Uruguay</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Venezuela</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Virgin Islands,British</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>St.Kitts&amp;Nevis</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>St.Pierre&amp;Miquelon</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Netherlands Antilles</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oth.L.Amer.nes</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>North America</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Canada</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>United States</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Greenland</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bermuda</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oth.N.Amer.nes</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oceania</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Australia</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cook Islands</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fiji</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gambier Islands</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Marquesas Islands</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nauru</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>New Caledonia</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vanuatu</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>New Zealand</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Norfolk Island</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Papua New Guinea</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Society Islands</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Solomon Islands</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tonga</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tuamotu Islands</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tubai Islands</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Samoa</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kiribati</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tuvalu</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Micronesia,FS</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Marshall Islands</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Palau</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>French Polynesia</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wallis and Futuna</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oth.Ocean.nes</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Countries(reg.)unknown</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -820,16 +1064,10 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <color rgb="FF333333"/>
-      <name val="Helvetica"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF333333"/>
-      <name val="SimSun"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -854,7 +1092,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -871,9 +1109,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1193,7 +1428,7 @@
   <dimension ref="A1:J248"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A245"/>
+      <selection activeCell="D2" sqref="D2:D245"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1209,24 +1444,24 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>225</v>
+        <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>224</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="21">
       <c r="A2" s="5" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2" s="2">
-        <v>24305</v>
+        <v>36316</v>
       </c>
       <c r="C2" s="2">
-        <v>23999</v>
+        <v>35858</v>
       </c>
       <c r="D2" s="3">
-        <v>306</v>
+        <v>458</v>
       </c>
       <c r="E2" s="4">
         <v>2017</v>
@@ -1241,16 +1476,16 @@
     </row>
     <row r="3" spans="1:10" ht="21">
       <c r="A3" s="5" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2">
-        <v>47316</v>
+        <v>70649</v>
       </c>
       <c r="C3" s="2">
-        <v>44563</v>
+        <v>66530</v>
       </c>
       <c r="D3" s="2">
-        <v>2752</v>
+        <v>4119</v>
       </c>
       <c r="E3" s="4">
         <v>2017</v>
@@ -1265,16 +1500,16 @@
     </row>
     <row r="4" spans="1:10" ht="21">
       <c r="A4" s="5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4" s="2">
-        <v>861642</v>
+        <v>1287148</v>
       </c>
       <c r="C4" s="2">
-        <v>816809</v>
+        <v>1219989</v>
       </c>
       <c r="D4" s="2">
-        <v>44833</v>
+        <v>67159</v>
       </c>
       <c r="E4" s="4">
         <v>2017</v>
@@ -1289,13 +1524,13 @@
     </row>
     <row r="5" spans="1:10" ht="21">
       <c r="A5" s="5" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5" s="3">
-        <v>229</v>
+        <v>342</v>
       </c>
       <c r="C5" s="3">
-        <v>229</v>
+        <v>342</v>
       </c>
       <c r="D5" s="3">
         <v>0</v>
@@ -1313,16 +1548,16 @@
     </row>
     <row r="6" spans="1:10" ht="21">
       <c r="A6" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6" s="2">
-        <v>60431</v>
+        <v>90457</v>
       </c>
       <c r="C6" s="2">
-        <v>34805</v>
+        <v>52082</v>
       </c>
       <c r="D6" s="2">
-        <v>25626</v>
+        <v>38375</v>
       </c>
       <c r="E6" s="4">
         <v>2017</v>
@@ -1337,16 +1572,16 @@
     </row>
     <row r="7" spans="1:10" ht="21">
       <c r="A7" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7" s="2">
-        <v>675693</v>
+        <v>1016184</v>
       </c>
       <c r="C7" s="2">
-        <v>498864</v>
+        <v>749688</v>
       </c>
       <c r="D7" s="2">
-        <v>176830</v>
+        <v>266496</v>
       </c>
       <c r="E7" s="4">
         <v>2017</v>
@@ -1361,16 +1596,16 @@
     </row>
     <row r="8" spans="1:10" ht="21">
       <c r="A8" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8" s="2">
-        <v>339745</v>
+        <v>508437</v>
       </c>
       <c r="C8" s="2">
-        <v>272530</v>
+        <v>407768</v>
       </c>
       <c r="D8" s="2">
-        <v>67215</v>
+        <v>100669</v>
       </c>
       <c r="E8" s="4">
         <v>2017</v>
@@ -1385,16 +1620,16 @@
     </row>
     <row r="9" spans="1:10" ht="21">
       <c r="A9" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9" s="2">
-        <v>39811</v>
+        <v>59313</v>
       </c>
       <c r="C9" s="2">
-        <v>36690</v>
+        <v>54617</v>
       </c>
       <c r="D9" s="2">
-        <v>3120</v>
+        <v>4696</v>
       </c>
       <c r="E9" s="4">
         <v>2017</v>
@@ -1409,16 +1644,16 @@
     </row>
     <row r="10" spans="1:10" ht="21">
       <c r="A10" s="5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10" s="2">
-        <v>275524</v>
+        <v>412169</v>
       </c>
       <c r="C10" s="2">
-        <v>178014</v>
+        <v>266346</v>
       </c>
       <c r="D10" s="2">
-        <v>97510</v>
+        <v>145823</v>
       </c>
       <c r="E10" s="4">
         <v>2017</v>
@@ -1432,17 +1667,17 @@
       <c r="J10" s="3"/>
     </row>
     <row r="11" spans="1:10" ht="21">
-      <c r="A11" s="6" t="s">
-        <v>221</v>
+      <c r="A11" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="B11" s="2">
-        <v>16917894</v>
+        <v>25296379</v>
       </c>
       <c r="C11" s="2">
-        <v>16375058</v>
+        <v>24482973</v>
       </c>
       <c r="D11" s="2">
-        <v>542836</v>
+        <v>813406</v>
       </c>
       <c r="E11" s="4">
         <v>2017</v>
@@ -1457,16 +1692,16 @@
     </row>
     <row r="12" spans="1:10" ht="21">
       <c r="A12" s="5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12" s="2">
-        <v>4752696</v>
+        <v>7105270</v>
       </c>
       <c r="C12" s="2">
-        <v>3859521</v>
+        <v>5767557</v>
       </c>
       <c r="D12" s="2">
-        <v>893175</v>
+        <v>1337713</v>
       </c>
       <c r="E12" s="4">
         <v>2017</v>
@@ -1481,16 +1716,16 @@
     </row>
     <row r="13" spans="1:10" ht="21">
       <c r="A13" s="5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13" s="2">
-        <v>3663799</v>
+        <v>5480251</v>
       </c>
       <c r="C13" s="2">
-        <v>1855606</v>
+        <v>2774711</v>
       </c>
       <c r="D13" s="2">
-        <v>1808194</v>
+        <v>2705540</v>
       </c>
       <c r="E13" s="4">
         <v>2017</v>
@@ -1505,16 +1740,16 @@
     </row>
     <row r="14" spans="1:10" ht="21">
       <c r="A14" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14" s="2">
-        <v>2050133</v>
+        <v>3072474</v>
       </c>
       <c r="C14" s="2">
-        <v>884107</v>
+        <v>1326420</v>
       </c>
       <c r="D14" s="2">
-        <v>1166026</v>
+        <v>1746053</v>
       </c>
       <c r="E14" s="4">
         <v>2017</v>
@@ -1529,16 +1764,16 @@
     </row>
     <row r="15" spans="1:10" ht="21">
       <c r="A15" s="5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15" s="2">
-        <v>1211134</v>
+        <v>1810739</v>
       </c>
       <c r="C15" s="2">
-        <v>409265</v>
+        <v>610756</v>
       </c>
       <c r="D15" s="2">
-        <v>801869</v>
+        <v>1199983</v>
       </c>
       <c r="E15" s="4">
         <v>2017</v>
@@ -1553,16 +1788,16 @@
     </row>
     <row r="16" spans="1:10" ht="21">
       <c r="A16" s="5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16" s="2">
-        <v>789018</v>
+        <v>1179747</v>
       </c>
       <c r="C16" s="2">
-        <v>517584</v>
+        <v>773330</v>
       </c>
       <c r="D16" s="2">
-        <v>271434</v>
+        <v>406417</v>
       </c>
       <c r="E16" s="4">
         <v>2017</v>
@@ -1577,16 +1812,16 @@
     </row>
     <row r="17" spans="1:10" ht="21">
       <c r="A17" s="5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17" s="2">
-        <v>18419404</v>
+        <v>27590504</v>
       </c>
       <c r="C17" s="2">
-        <v>7907521</v>
+        <v>11833771</v>
       </c>
       <c r="D17" s="2">
-        <v>10511882</v>
+        <v>15756733</v>
       </c>
       <c r="E17" s="4">
         <v>2017</v>
@@ -1601,16 +1836,16 @@
     </row>
     <row r="18" spans="1:10" ht="21">
       <c r="A18" s="5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18" s="2">
-        <v>167539</v>
+        <v>250450</v>
       </c>
       <c r="C18" s="2">
-        <v>149922</v>
+        <v>224069</v>
       </c>
       <c r="D18" s="2">
-        <v>17617</v>
+        <v>26381</v>
       </c>
       <c r="E18" s="4">
         <v>2017</v>
@@ -1625,16 +1860,16 @@
     </row>
     <row r="19" spans="1:10" ht="21">
       <c r="A19" s="5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19" s="2">
-        <v>622375</v>
+        <v>931420</v>
       </c>
       <c r="C19" s="2">
-        <v>146024</v>
+        <v>218010</v>
       </c>
       <c r="D19" s="2">
-        <v>476351</v>
+        <v>713410</v>
       </c>
       <c r="E19" s="4">
         <v>2017</v>
@@ -1649,16 +1884,16 @@
     </row>
     <row r="20" spans="1:10" ht="21">
       <c r="A20" s="5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20" s="2">
-        <v>139632</v>
+        <v>209605</v>
       </c>
       <c r="C20" s="2">
-        <v>76714</v>
+        <v>115007</v>
       </c>
       <c r="D20" s="2">
-        <v>62919</v>
+        <v>94598</v>
       </c>
       <c r="E20" s="4">
         <v>2017</v>
@@ -1673,16 +1908,16 @@
     </row>
     <row r="21" spans="1:10" ht="21">
       <c r="A21" s="5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21" s="2">
-        <v>94529</v>
+        <v>141151</v>
       </c>
       <c r="C21" s="2">
-        <v>93715</v>
-      </c>
-      <c r="D21" s="3">
-        <v>814</v>
+        <v>139932</v>
+      </c>
+      <c r="D21" s="2">
+        <v>1219</v>
       </c>
       <c r="E21" s="4">
         <v>2017</v>
@@ -1697,16 +1932,16 @@
     </row>
     <row r="22" spans="1:10" ht="21">
       <c r="A22" s="5" t="s">
-        <v>226</v>
+        <v>26</v>
       </c>
       <c r="B22" s="2">
-        <v>164003</v>
+        <v>245696</v>
       </c>
       <c r="C22" s="2">
-        <v>157810</v>
+        <v>236418</v>
       </c>
       <c r="D22" s="2">
-        <v>6193</v>
+        <v>9278</v>
       </c>
       <c r="E22" s="4">
         <v>2017</v>
@@ -1721,16 +1956,16 @@
     </row>
     <row r="23" spans="1:10" ht="21">
       <c r="A23" s="5" t="s">
-        <v>222</v>
+        <v>27</v>
       </c>
       <c r="B23" s="2">
-        <v>5778976</v>
+        <v>8646982</v>
       </c>
       <c r="C23" s="2">
-        <v>2470801</v>
+        <v>3694208</v>
       </c>
       <c r="D23" s="2">
-        <v>3308175</v>
+        <v>4952775</v>
       </c>
       <c r="E23" s="4">
         <v>2017</v>
@@ -1745,16 +1980,16 @@
     </row>
     <row r="24" spans="1:10" ht="21">
       <c r="A24" s="5" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B24" s="2">
-        <v>13068</v>
+        <v>19520</v>
       </c>
       <c r="C24" s="2">
-        <v>13059</v>
+        <v>19506</v>
       </c>
       <c r="D24" s="3">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E24" s="4">
         <v>2017</v>
@@ -1769,16 +2004,16 @@
     </row>
     <row r="25" spans="1:10" ht="21">
       <c r="A25" s="5" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B25" s="2">
-        <v>340717</v>
+        <v>511879</v>
       </c>
       <c r="C25" s="2">
-        <v>86755</v>
+        <v>130369</v>
       </c>
       <c r="D25" s="2">
-        <v>253962</v>
+        <v>381509</v>
       </c>
       <c r="E25" s="4">
         <v>2017</v>
@@ -1793,16 +2028,16 @@
     </row>
     <row r="26" spans="1:10" ht="21">
       <c r="A26" s="5" t="s">
-        <v>227</v>
+        <v>30</v>
       </c>
       <c r="B26" s="2">
-        <v>58853</v>
+        <v>88425</v>
       </c>
       <c r="C26" s="2">
-        <v>57816</v>
+        <v>86866</v>
       </c>
       <c r="D26" s="2">
-        <v>1038</v>
+        <v>1560</v>
       </c>
       <c r="E26" s="4">
         <v>2017</v>
@@ -1817,16 +2052,16 @@
     </row>
     <row r="27" spans="1:10" ht="21">
       <c r="A27" s="5" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B27" s="2">
-        <v>817149</v>
+        <v>1222553</v>
       </c>
       <c r="C27" s="2">
-        <v>117159</v>
+        <v>174900</v>
       </c>
       <c r="D27" s="2">
-        <v>699989</v>
+        <v>1047653</v>
       </c>
       <c r="E27" s="4">
         <v>2017</v>
@@ -1841,16 +2076,16 @@
     </row>
     <row r="28" spans="1:10" ht="21">
       <c r="A28" s="5" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B28" s="2">
-        <v>990566</v>
+        <v>1479095</v>
       </c>
       <c r="C28" s="2">
-        <v>898447</v>
+        <v>1341114</v>
       </c>
       <c r="D28" s="2">
-        <v>92119</v>
+        <v>137981</v>
       </c>
       <c r="E28" s="4">
         <v>2017</v>
@@ -1865,16 +2100,16 @@
     </row>
     <row r="29" spans="1:10" ht="21">
       <c r="A29" s="5" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B29" s="2">
-        <v>4399</v>
+        <v>6566</v>
       </c>
       <c r="C29" s="2">
-        <v>4398</v>
+        <v>6564</v>
       </c>
       <c r="D29" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E29" s="4">
         <v>2017</v>
@@ -1889,16 +2124,16 @@
     </row>
     <row r="30" spans="1:10" ht="21">
       <c r="A30" s="5" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B30" s="2">
-        <v>3022447</v>
+        <v>4519740</v>
       </c>
       <c r="C30" s="2">
-        <v>1693553</v>
+        <v>2531123</v>
       </c>
       <c r="D30" s="2">
-        <v>1328893</v>
+        <v>1988616</v>
       </c>
       <c r="E30" s="4">
         <v>2017</v>
@@ -1913,16 +2148,16 @@
     </row>
     <row r="31" spans="1:10" ht="21">
       <c r="A31" s="5" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B31" s="2">
-        <v>517966</v>
+        <v>775143</v>
       </c>
       <c r="C31" s="2">
-        <v>104727</v>
+        <v>156410</v>
       </c>
       <c r="D31" s="2">
-        <v>413239</v>
+        <v>618733</v>
       </c>
       <c r="E31" s="4">
         <v>2017</v>
@@ -1937,16 +2172,16 @@
     </row>
     <row r="32" spans="1:10" ht="21">
       <c r="A32" s="5" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B32" s="2">
-        <v>2552599</v>
+        <v>3818086</v>
       </c>
       <c r="C32" s="2">
-        <v>825487</v>
+        <v>1233016</v>
       </c>
       <c r="D32" s="2">
-        <v>1727112</v>
+        <v>2585070</v>
       </c>
       <c r="E32" s="4">
         <v>2017</v>
@@ -1961,16 +2196,16 @@
     </row>
     <row r="33" spans="1:10" ht="21">
       <c r="A33" s="5" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B33" s="2">
-        <v>4645564</v>
+        <v>6946134</v>
       </c>
       <c r="C33" s="2">
-        <v>2673737</v>
+        <v>3995003</v>
       </c>
       <c r="D33" s="2">
-        <v>1971827</v>
+        <v>2951131</v>
       </c>
       <c r="E33" s="4">
         <v>2017</v>
@@ -1985,16 +2220,16 @@
     </row>
     <row r="34" spans="1:10" ht="21">
       <c r="A34" s="5" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B34" s="2">
-        <v>17393222</v>
+        <v>26021123</v>
       </c>
       <c r="C34" s="2">
-        <v>5938729</v>
+        <v>8874790</v>
       </c>
       <c r="D34" s="2">
-        <v>11454493</v>
+        <v>17146333</v>
       </c>
       <c r="E34" s="4">
         <v>2017</v>
@@ -2009,16 +2244,16 @@
     </row>
     <row r="35" spans="1:10" ht="21">
       <c r="A35" s="5" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B35" s="2">
-        <v>235459</v>
+        <v>351538</v>
       </c>
       <c r="C35" s="2">
-        <v>217110</v>
+        <v>324030</v>
       </c>
       <c r="D35" s="2">
-        <v>18349</v>
+        <v>27508</v>
       </c>
       <c r="E35" s="4">
         <v>2017</v>
@@ -2033,16 +2268,16 @@
     </row>
     <row r="36" spans="1:10" ht="21">
       <c r="A36" s="5" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B36" s="2">
-        <v>54564</v>
+        <v>81514</v>
       </c>
       <c r="C36" s="2">
-        <v>54493</v>
+        <v>81408</v>
       </c>
       <c r="D36" s="3">
-        <v>71</v>
+        <v>106</v>
       </c>
       <c r="E36" s="4">
         <v>2017</v>
@@ -2057,16 +2292,16 @@
     </row>
     <row r="37" spans="1:10" ht="21">
       <c r="A37" s="5" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B37" s="2">
-        <v>4871784</v>
+        <v>7295239</v>
       </c>
       <c r="C37" s="2">
-        <v>2172486</v>
+        <v>3251405</v>
       </c>
       <c r="D37" s="2">
-        <v>2699298</v>
+        <v>4043835</v>
       </c>
       <c r="E37" s="4">
         <v>2017</v>
@@ -2081,16 +2316,16 @@
     </row>
     <row r="38" spans="1:10" ht="21">
       <c r="A38" s="5" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B38" s="2">
-        <v>1109699</v>
+        <v>1659756</v>
       </c>
       <c r="C38" s="2">
-        <v>876060</v>
+        <v>1309221</v>
       </c>
       <c r="D38" s="2">
-        <v>233639</v>
+        <v>350536</v>
       </c>
       <c r="E38" s="4">
         <v>2017</v>
@@ -2105,16 +2340,16 @@
     </row>
     <row r="39" spans="1:10" ht="21">
       <c r="A39" s="5" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B39" s="2">
-        <v>2183678</v>
+        <v>3265352</v>
       </c>
       <c r="C39" s="2">
-        <v>1472155</v>
+        <v>2199509</v>
       </c>
       <c r="D39" s="2">
-        <v>711523</v>
+        <v>1065843</v>
       </c>
       <c r="E39" s="4">
         <v>2017</v>
@@ -2129,16 +2364,16 @@
     </row>
     <row r="40" spans="1:10" ht="21">
       <c r="A40" s="5" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B40" s="2">
-        <v>152480</v>
+        <v>228013</v>
       </c>
       <c r="C40" s="2">
-        <v>79402</v>
+        <v>118583</v>
       </c>
       <c r="D40" s="2">
-        <v>73078</v>
+        <v>109430</v>
       </c>
       <c r="E40" s="4">
         <v>2017</v>
@@ -2153,16 +2388,16 @@
     </row>
     <row r="41" spans="1:10" ht="21">
       <c r="A41" s="5" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B41" s="2">
-        <v>7625664</v>
+        <v>11432357</v>
       </c>
       <c r="C41" s="2">
-        <v>4297404</v>
+        <v>6440637</v>
       </c>
       <c r="D41" s="2">
-        <v>3328260</v>
+        <v>4991721</v>
       </c>
       <c r="E41" s="4">
         <v>2017</v>
@@ -2177,16 +2412,16 @@
     </row>
     <row r="42" spans="1:10" ht="21">
       <c r="A42" s="5" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B42" s="2">
-        <v>8897003</v>
+        <v>13305254</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D42" s="2">
-        <v>8897003</v>
+        <v>13305254</v>
       </c>
       <c r="E42" s="4">
         <v>2017</v>
@@ -2200,17 +2435,17 @@
       <c r="J42" s="3"/>
     </row>
     <row r="43" spans="1:10" ht="21">
-      <c r="A43" s="6" t="s">
-        <v>223</v>
+      <c r="A43" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="B43" s="2">
-        <v>13015276</v>
+        <v>19474289</v>
       </c>
       <c r="C43" s="2">
-        <v>2717720</v>
+        <v>4064755</v>
       </c>
       <c r="D43" s="2">
-        <v>10297556</v>
+        <v>15409534</v>
       </c>
       <c r="E43" s="4">
         <v>2017</v>
@@ -2225,16 +2460,16 @@
     </row>
     <row r="44" spans="1:10" ht="21">
       <c r="A44" s="5" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="B44" s="2">
-        <v>5290</v>
+        <v>7887</v>
       </c>
       <c r="C44" s="2">
-        <v>4944</v>
+        <v>7369</v>
       </c>
       <c r="D44" s="3">
-        <v>346</v>
+        <v>518</v>
       </c>
       <c r="E44" s="4">
         <v>2017</v>
@@ -2249,16 +2484,16 @@
     </row>
     <row r="45" spans="1:10" ht="21">
       <c r="A45" s="5" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B45" s="2">
-        <v>1179659</v>
+        <v>1761770</v>
       </c>
       <c r="C45" s="2">
-        <v>766121</v>
+        <v>1145331</v>
       </c>
       <c r="D45" s="2">
-        <v>413538</v>
+        <v>616439</v>
       </c>
       <c r="E45" s="4">
         <v>2017</v>
@@ -2273,16 +2508,16 @@
     </row>
     <row r="46" spans="1:10" ht="21">
       <c r="A46" s="5" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="B46" s="2">
-        <v>397887</v>
+        <v>595003</v>
       </c>
       <c r="C46" s="2">
-        <v>391923</v>
+        <v>586072</v>
       </c>
       <c r="D46" s="2">
-        <v>5964</v>
+        <v>8930</v>
       </c>
       <c r="E46" s="4">
         <v>2017</v>
@@ -2297,16 +2532,16 @@
     </row>
     <row r="47" spans="1:10" ht="21">
       <c r="A47" s="5" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="B47" s="2">
-        <v>102052</v>
+        <v>152668</v>
       </c>
       <c r="C47" s="2">
-        <v>97600</v>
+        <v>146001</v>
       </c>
       <c r="D47" s="2">
-        <v>4452</v>
+        <v>6667</v>
       </c>
       <c r="E47" s="4">
         <v>2017</v>
@@ -2321,16 +2556,16 @@
     </row>
     <row r="48" spans="1:10" ht="21">
       <c r="A48" s="5" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="B48" s="2">
-        <v>397101</v>
+        <v>594554</v>
       </c>
       <c r="C48" s="2">
-        <v>16428</v>
+        <v>24530</v>
       </c>
       <c r="D48" s="2">
-        <v>380673</v>
+        <v>570024</v>
       </c>
       <c r="E48" s="4">
         <v>2017</v>
@@ -2345,16 +2580,16 @@
     </row>
     <row r="49" spans="1:10" ht="21">
       <c r="A49" s="5" t="s">
-        <v>228</v>
+        <v>53</v>
       </c>
       <c r="B49" s="2">
-        <v>253917</v>
+        <v>379143</v>
       </c>
       <c r="C49" s="2">
-        <v>161348</v>
+        <v>240738</v>
       </c>
       <c r="D49" s="2">
-        <v>92569</v>
+        <v>138405</v>
       </c>
       <c r="E49" s="4">
         <v>2017</v>
@@ -2369,13 +2604,13 @@
     </row>
     <row r="50" spans="1:10" ht="21">
       <c r="A50" s="5" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="B50" s="2">
-        <v>9854</v>
+        <v>14756</v>
       </c>
       <c r="C50" s="2">
-        <v>9853</v>
+        <v>14755</v>
       </c>
       <c r="D50" s="3">
         <v>1</v>
@@ -2393,16 +2628,16 @@
     </row>
     <row r="51" spans="1:10" ht="21">
       <c r="A51" s="5" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="B51" s="2">
-        <v>9490550</v>
+        <v>14192191</v>
       </c>
       <c r="C51" s="2">
-        <v>5033790</v>
+        <v>7518053</v>
       </c>
       <c r="D51" s="2">
-        <v>4456760</v>
+        <v>6674138</v>
       </c>
       <c r="E51" s="4">
         <v>2017</v>
@@ -2417,16 +2652,16 @@
     </row>
     <row r="52" spans="1:10" ht="21">
       <c r="A52" s="5" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="B52" s="2">
-        <v>298142</v>
+        <v>445248</v>
       </c>
       <c r="C52" s="2">
-        <v>297461</v>
-      </c>
-      <c r="D52" s="3">
-        <v>681</v>
+        <v>444226</v>
+      </c>
+      <c r="D52" s="2">
+        <v>1021</v>
       </c>
       <c r="E52" s="4">
         <v>2017</v>
@@ -2441,16 +2676,16 @@
     </row>
     <row r="53" spans="1:10" ht="21">
       <c r="A53" s="5" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="B53" s="2">
-        <v>1382297</v>
+        <v>2068459</v>
       </c>
       <c r="C53" s="2">
-        <v>142550</v>
+        <v>212926</v>
       </c>
       <c r="D53" s="2">
-        <v>1239747</v>
+        <v>1855533</v>
       </c>
       <c r="E53" s="4">
         <v>2017</v>
@@ -2465,16 +2700,16 @@
     </row>
     <row r="54" spans="1:10" ht="21">
       <c r="A54" s="5" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="B54" s="2">
-        <v>111296</v>
+        <v>166166</v>
       </c>
       <c r="C54" s="2">
-        <v>102818</v>
+        <v>153475</v>
       </c>
       <c r="D54" s="2">
-        <v>8478</v>
+        <v>12691</v>
       </c>
       <c r="E54" s="4">
         <v>2017</v>
@@ -2489,16 +2724,16 @@
     </row>
     <row r="55" spans="1:10" ht="21">
       <c r="A55" s="5" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B55" s="2">
-        <v>14220</v>
+        <v>21226</v>
       </c>
       <c r="C55" s="2">
-        <v>13198</v>
+        <v>19695</v>
       </c>
       <c r="D55" s="2">
-        <v>1022</v>
+        <v>1530</v>
       </c>
       <c r="E55" s="4">
         <v>2017</v>
@@ -2513,16 +2748,16 @@
     </row>
     <row r="56" spans="1:10" ht="21">
       <c r="A56" s="5" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="B56" s="2">
-        <v>3121</v>
+        <v>4686</v>
       </c>
       <c r="C56" s="2">
-        <v>2518</v>
+        <v>3783</v>
       </c>
       <c r="D56" s="3">
-        <v>604</v>
+        <v>904</v>
       </c>
       <c r="E56" s="4">
         <v>2017</v>
@@ -2537,16 +2772,16 @@
     </row>
     <row r="57" spans="1:10" ht="21">
       <c r="A57" s="5" t="s">
-        <v>229</v>
+        <v>61</v>
       </c>
       <c r="B57" s="2">
-        <v>121081</v>
+        <v>181168</v>
       </c>
       <c r="C57" s="2">
-        <v>71669</v>
+        <v>106956</v>
       </c>
       <c r="D57" s="2">
-        <v>49412</v>
+        <v>74212</v>
       </c>
       <c r="E57" s="4">
         <v>2017</v>
@@ -2561,16 +2796,16 @@
     </row>
     <row r="58" spans="1:10" ht="21">
       <c r="A58" s="5" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="B58" s="3">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="C58" s="3">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E58" s="4">
         <v>2017</v>
@@ -2585,13 +2820,13 @@
     </row>
     <row r="59" spans="1:10" ht="21">
       <c r="A59" s="5" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="B59" s="2">
-        <v>4990</v>
+        <v>7467</v>
       </c>
       <c r="C59" s="2">
-        <v>4990</v>
+        <v>7466</v>
       </c>
       <c r="D59" s="3">
         <v>1</v>
@@ -2609,16 +2844,16 @@
     </row>
     <row r="60" spans="1:10" ht="21">
       <c r="A60" s="5" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="B60" s="2">
-        <v>2755</v>
+        <v>4142</v>
       </c>
       <c r="C60" s="3">
-        <v>590</v>
+        <v>881</v>
       </c>
       <c r="D60" s="2">
-        <v>2165</v>
+        <v>3261</v>
       </c>
       <c r="E60" s="4">
         <v>2017</v>
@@ -2633,16 +2868,16 @@
     </row>
     <row r="61" spans="1:10" ht="21">
       <c r="A61" s="5" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E61" s="4">
         <v>2017</v>
@@ -2657,16 +2892,16 @@
     </row>
     <row r="62" spans="1:10" ht="21">
       <c r="A62" s="5" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="B62" s="2">
-        <v>10789</v>
+        <v>16096</v>
       </c>
       <c r="C62" s="2">
-        <v>9748</v>
+        <v>14537</v>
       </c>
       <c r="D62" s="2">
-        <v>1041</v>
+        <v>1558</v>
       </c>
       <c r="E62" s="4">
         <v>2017</v>
@@ -2681,13 +2916,13 @@
     </row>
     <row r="63" spans="1:10" ht="21">
       <c r="A63" s="5" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="B63" s="2">
-        <v>3085</v>
+        <v>4616</v>
       </c>
       <c r="C63" s="2">
-        <v>3085</v>
+        <v>4616</v>
       </c>
       <c r="D63" s="3">
         <v>0</v>
@@ -2705,16 +2940,16 @@
     </row>
     <row r="64" spans="1:10" ht="21">
       <c r="A64" s="5" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="B64" s="2">
-        <v>223314</v>
+        <v>334398</v>
       </c>
       <c r="C64" s="2">
-        <v>25943</v>
+        <v>38759</v>
       </c>
       <c r="D64" s="2">
-        <v>197371</v>
+        <v>295639</v>
       </c>
       <c r="E64" s="4">
         <v>2017</v>
@@ -2729,13 +2964,13 @@
     </row>
     <row r="65" spans="1:10" ht="21">
       <c r="A65" s="5" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="B65" s="2">
-        <v>125411</v>
+        <v>187442</v>
       </c>
       <c r="C65" s="2">
-        <v>125411</v>
+        <v>187442</v>
       </c>
       <c r="D65" s="3">
         <v>0</v>
@@ -2753,16 +2988,16 @@
     </row>
     <row r="66" spans="1:10" ht="21">
       <c r="A66" s="5" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="B66" s="2">
-        <v>538997</v>
+        <v>805291</v>
       </c>
       <c r="C66" s="2">
-        <v>483749</v>
+        <v>722544</v>
       </c>
       <c r="D66" s="2">
-        <v>55248</v>
+        <v>82748</v>
       </c>
       <c r="E66" s="4">
         <v>2017</v>
@@ -2777,16 +3012,16 @@
     </row>
     <row r="67" spans="1:10" ht="21">
       <c r="A67" s="5" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="B67" s="2">
-        <v>70750</v>
+        <v>106145</v>
       </c>
       <c r="C67" s="2">
-        <v>10174</v>
+        <v>15167</v>
       </c>
       <c r="D67" s="2">
-        <v>60576</v>
+        <v>90978</v>
       </c>
       <c r="E67" s="4">
         <v>2017</v>
@@ -2801,16 +3036,16 @@
     </row>
     <row r="68" spans="1:10" ht="21">
       <c r="A68" s="5" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="B68" s="2">
-        <v>133673</v>
+        <v>199674</v>
       </c>
       <c r="C68" s="2">
-        <v>114589</v>
+        <v>171098</v>
       </c>
       <c r="D68" s="2">
-        <v>19084</v>
+        <v>28576</v>
       </c>
       <c r="E68" s="4">
         <v>2017</v>
@@ -2825,16 +3060,16 @@
     </row>
     <row r="69" spans="1:10" ht="21">
       <c r="A69" s="5" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="B69" s="2">
-        <v>187851</v>
+        <v>281399</v>
       </c>
       <c r="C69" s="2">
-        <v>17331</v>
+        <v>25886</v>
       </c>
       <c r="D69" s="2">
-        <v>170520</v>
+        <v>255512</v>
       </c>
       <c r="E69" s="4">
         <v>2017</v>
@@ -2849,16 +3084,16 @@
     </row>
     <row r="70" spans="1:10" ht="21">
       <c r="A70" s="5" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="B70" s="2">
-        <v>33825</v>
+        <v>50534</v>
       </c>
       <c r="C70" s="2">
-        <v>21335</v>
+        <v>31831</v>
       </c>
       <c r="D70" s="2">
-        <v>12490</v>
+        <v>18703</v>
       </c>
       <c r="E70" s="4">
         <v>2017</v>
@@ -2873,16 +3108,16 @@
     </row>
     <row r="71" spans="1:10" ht="21">
       <c r="A71" s="5" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="B71" s="2">
-        <v>340682</v>
+        <v>509181</v>
       </c>
       <c r="C71" s="2">
-        <v>248264</v>
+        <v>370627</v>
       </c>
       <c r="D71" s="2">
-        <v>92418</v>
+        <v>138553</v>
       </c>
       <c r="E71" s="4">
         <v>2017</v>
@@ -2897,16 +3132,16 @@
     </row>
     <row r="72" spans="1:10" ht="21">
       <c r="A72" s="5" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="B72" s="2">
-        <v>164152</v>
+        <v>245610</v>
       </c>
       <c r="C72" s="2">
-        <v>73895</v>
+        <v>110451</v>
       </c>
       <c r="D72" s="2">
-        <v>90257</v>
+        <v>135159</v>
       </c>
       <c r="E72" s="4">
         <v>2017</v>
@@ -2921,16 +3156,16 @@
     </row>
     <row r="73" spans="1:10" ht="21">
       <c r="A73" s="5" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="B73" s="2">
-        <v>1982</v>
+        <v>2979</v>
       </c>
       <c r="C73" s="2">
-        <v>1982</v>
+        <v>2979</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E73" s="4">
         <v>2017</v>
@@ -2945,16 +3180,16 @@
     </row>
     <row r="74" spans="1:10" ht="21">
       <c r="A74" s="5" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="B74" s="2">
-        <v>120064</v>
+        <v>179224</v>
       </c>
       <c r="C74" s="2">
-        <v>115151</v>
+        <v>171844</v>
       </c>
       <c r="D74" s="2">
-        <v>4914</v>
+        <v>7379</v>
       </c>
       <c r="E74" s="4">
         <v>2017</v>
@@ -2969,16 +3204,16 @@
     </row>
     <row r="75" spans="1:10" ht="21">
       <c r="A75" s="5" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="B75" s="2">
-        <v>253852</v>
+        <v>379084</v>
       </c>
       <c r="C75" s="2">
-        <v>243189</v>
+        <v>363115</v>
       </c>
       <c r="D75" s="2">
-        <v>10663</v>
+        <v>15968</v>
       </c>
       <c r="E75" s="4">
         <v>2017</v>
@@ -2993,16 +3228,16 @@
     </row>
     <row r="76" spans="1:10" ht="21">
       <c r="A76" s="5" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="B76" s="2">
-        <v>126235</v>
+        <v>188425</v>
       </c>
       <c r="C76" s="2">
-        <v>126115</v>
+        <v>188246</v>
       </c>
       <c r="D76" s="3">
-        <v>120</v>
+        <v>179</v>
       </c>
       <c r="E76" s="4">
         <v>2017</v>
@@ -3017,16 +3252,16 @@
     </row>
     <row r="77" spans="1:10" ht="21">
       <c r="A77" s="5" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="B77" s="2">
-        <v>144006</v>
+        <v>215444</v>
       </c>
       <c r="C77" s="2">
-        <v>50250</v>
+        <v>75046</v>
       </c>
       <c r="D77" s="2">
-        <v>93756</v>
+        <v>140398</v>
       </c>
       <c r="E77" s="4">
         <v>2017</v>
@@ -3041,16 +3276,16 @@
     </row>
     <row r="78" spans="1:10" ht="21">
       <c r="A78" s="5" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="B78" s="2">
-        <v>64309</v>
+        <v>96098</v>
       </c>
       <c r="C78" s="2">
-        <v>51731</v>
+        <v>77261</v>
       </c>
       <c r="D78" s="2">
-        <v>12578</v>
+        <v>18837</v>
       </c>
       <c r="E78" s="4">
         <v>2017</v>
@@ -3065,16 +3300,16 @@
     </row>
     <row r="79" spans="1:10" ht="21">
       <c r="A79" s="5" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="B79" s="2">
-        <v>15592</v>
+        <v>23338</v>
       </c>
       <c r="C79" s="2">
-        <v>15348</v>
+        <v>22973</v>
       </c>
       <c r="D79" s="3">
-        <v>244</v>
+        <v>365</v>
       </c>
       <c r="E79" s="4">
         <v>2017</v>
@@ -3089,16 +3324,16 @@
     </row>
     <row r="80" spans="1:10" ht="21">
       <c r="A80" s="5" t="s">
-        <v>230</v>
+        <v>84</v>
       </c>
       <c r="B80" s="2">
-        <v>20314</v>
+        <v>30375</v>
       </c>
       <c r="C80" s="2">
-        <v>14391</v>
+        <v>21493</v>
       </c>
       <c r="D80" s="2">
-        <v>5923</v>
+        <v>8882</v>
       </c>
       <c r="E80" s="4">
         <v>2017</v>
@@ -3113,16 +3348,16 @@
     </row>
     <row r="81" spans="1:10" ht="21">
       <c r="A81" s="5" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="B81" s="2">
-        <v>81595</v>
+        <v>121917</v>
       </c>
       <c r="C81" s="2">
-        <v>35982</v>
+        <v>53662</v>
       </c>
       <c r="D81" s="2">
-        <v>45613</v>
+        <v>68255</v>
       </c>
       <c r="E81" s="4">
         <v>2017</v>
@@ -3137,16 +3372,16 @@
     </row>
     <row r="82" spans="1:10" ht="21">
       <c r="A82" s="5" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="B82" s="2">
-        <v>56268</v>
+        <v>84061</v>
       </c>
       <c r="C82" s="2">
-        <v>55249</v>
+        <v>82532</v>
       </c>
       <c r="D82" s="2">
-        <v>1019</v>
+        <v>1529</v>
       </c>
       <c r="E82" s="4">
         <v>2017</v>
@@ -3161,16 +3396,16 @@
     </row>
     <row r="83" spans="1:10" ht="21">
       <c r="A83" s="5" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="B83" s="2">
-        <v>177734</v>
+        <v>265782</v>
       </c>
       <c r="C83" s="2">
-        <v>135058</v>
+        <v>201832</v>
       </c>
       <c r="D83" s="2">
-        <v>42676</v>
+        <v>63951</v>
       </c>
       <c r="E83" s="4">
         <v>2017</v>
@@ -3185,16 +3420,16 @@
     </row>
     <row r="84" spans="1:10" ht="21">
       <c r="A84" s="5" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="B84" s="2">
-        <v>91826</v>
+        <v>137151</v>
       </c>
       <c r="C84" s="2">
-        <v>70515</v>
+        <v>105204</v>
       </c>
       <c r="D84" s="2">
-        <v>21311</v>
+        <v>31947</v>
       </c>
       <c r="E84" s="4">
         <v>2017</v>
@@ -3209,16 +3444,16 @@
     </row>
     <row r="85" spans="1:10" ht="21">
       <c r="A85" s="5" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="B85" s="2">
-        <v>35095</v>
+        <v>52336</v>
       </c>
       <c r="C85" s="2">
-        <v>16852</v>
+        <v>25146</v>
       </c>
       <c r="D85" s="2">
-        <v>18242</v>
+        <v>27189</v>
       </c>
       <c r="E85" s="4">
         <v>2017</v>
@@ -3233,16 +3468,16 @@
     </row>
     <row r="86" spans="1:10" ht="21">
       <c r="A86" s="5" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="B86" s="2">
-        <v>7711</v>
+        <v>11506</v>
       </c>
       <c r="C86" s="2">
-        <v>5456</v>
+        <v>8131</v>
       </c>
       <c r="D86" s="2">
-        <v>2255</v>
+        <v>3375</v>
       </c>
       <c r="E86" s="4">
         <v>2017</v>
@@ -3257,16 +3492,16 @@
     </row>
     <row r="87" spans="1:10" ht="21">
       <c r="A87" s="5" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="B87" s="2">
-        <v>754592</v>
+        <v>1126945</v>
       </c>
       <c r="C87" s="2">
-        <v>616322</v>
+        <v>920076</v>
       </c>
       <c r="D87" s="2">
-        <v>138270</v>
+        <v>206869</v>
       </c>
       <c r="E87" s="4">
         <v>2017</v>
@@ -3281,16 +3516,16 @@
     </row>
     <row r="88" spans="1:10" ht="21">
       <c r="A88" s="5" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="B88" s="2">
-        <v>9142</v>
+        <v>13671</v>
       </c>
       <c r="C88" s="2">
-        <v>9134</v>
+        <v>13660</v>
       </c>
       <c r="D88" s="3">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E88" s="4">
         <v>2017</v>
@@ -3305,16 +3540,16 @@
     </row>
     <row r="89" spans="1:10" ht="21">
       <c r="A89" s="5" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="B89" s="2">
-        <v>8138</v>
+        <v>12166</v>
       </c>
       <c r="C89" s="2">
-        <v>6170</v>
+        <v>9219</v>
       </c>
       <c r="D89" s="2">
-        <v>1968</v>
+        <v>2947</v>
       </c>
       <c r="E89" s="4">
         <v>2017</v>
@@ -3329,13 +3564,13 @@
     </row>
     <row r="90" spans="1:10" ht="21">
       <c r="A90" s="5" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="B90" s="3">
-        <v>246</v>
+        <v>369</v>
       </c>
       <c r="C90" s="3">
-        <v>246</v>
+        <v>369</v>
       </c>
       <c r="D90" s="3">
         <v>0</v>
@@ -3353,16 +3588,16 @@
     </row>
     <row r="91" spans="1:10" ht="21">
       <c r="A91" s="5" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="B91" s="2">
-        <v>97550</v>
+        <v>145711</v>
       </c>
       <c r="C91" s="2">
-        <v>94582</v>
+        <v>141265</v>
       </c>
       <c r="D91" s="2">
-        <v>2967</v>
+        <v>4446</v>
       </c>
       <c r="E91" s="4">
         <v>2017</v>
@@ -3377,16 +3612,16 @@
     </row>
     <row r="92" spans="1:10" ht="21">
       <c r="A92" s="5" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="B92" s="2">
-        <v>3858</v>
+        <v>5767</v>
       </c>
       <c r="C92" s="2">
-        <v>3766</v>
+        <v>5629</v>
       </c>
       <c r="D92" s="3">
-        <v>92</v>
+        <v>138</v>
       </c>
       <c r="E92" s="4">
         <v>2017</v>
@@ -3401,16 +3636,16 @@
     </row>
     <row r="93" spans="1:10" ht="21">
       <c r="A93" s="5" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="B93" s="2">
-        <v>32366</v>
+        <v>48280</v>
       </c>
       <c r="C93" s="2">
-        <v>13893</v>
+        <v>20671</v>
       </c>
       <c r="D93" s="2">
-        <v>18472</v>
+        <v>27609</v>
       </c>
       <c r="E93" s="4">
         <v>2017</v>
@@ -3425,16 +3660,16 @@
     </row>
     <row r="94" spans="1:10" ht="21">
       <c r="A94" s="5" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="B94" s="2">
-        <v>28884</v>
+        <v>43137</v>
       </c>
       <c r="C94" s="2">
-        <v>27306</v>
+        <v>40770</v>
       </c>
       <c r="D94" s="2">
-        <v>1579</v>
+        <v>2366</v>
       </c>
       <c r="E94" s="4">
         <v>2017</v>
@@ -3449,16 +3684,16 @@
     </row>
     <row r="95" spans="1:10" ht="21">
       <c r="A95" s="5" t="s">
-        <v>231</v>
+        <v>99</v>
       </c>
       <c r="B95" s="2">
-        <v>2295249</v>
+        <v>3434409</v>
       </c>
       <c r="C95" s="2">
-        <v>914281</v>
+        <v>1366086</v>
       </c>
       <c r="D95" s="2">
-        <v>1380968</v>
+        <v>2068323</v>
       </c>
       <c r="E95" s="4">
         <v>2017</v>
@@ -3473,7 +3708,7 @@
     </row>
     <row r="96" spans="1:10" ht="21">
       <c r="A96" s="5" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="B96" s="3">
         <v>0</v>
@@ -3482,7 +3717,7 @@
         <v>0</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E96" s="4">
         <v>2017</v>
@@ -3497,16 +3732,16 @@
     </row>
     <row r="97" spans="1:10" ht="21">
       <c r="A97" s="5" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="B97" s="2">
-        <v>98676</v>
+        <v>147697</v>
       </c>
       <c r="C97" s="2">
-        <v>92629</v>
+        <v>138594</v>
       </c>
       <c r="D97" s="2">
-        <v>6046</v>
+        <v>9102</v>
       </c>
       <c r="E97" s="4">
         <v>2017</v>
@@ -3521,16 +3756,16 @@
     </row>
     <row r="98" spans="1:10" ht="21">
       <c r="A98" s="5" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="B98" s="2">
-        <v>201338</v>
+        <v>300626</v>
       </c>
       <c r="C98" s="2">
-        <v>179663</v>
+        <v>268193</v>
       </c>
       <c r="D98" s="2">
-        <v>21676</v>
+        <v>32433</v>
       </c>
       <c r="E98" s="4">
         <v>2017</v>
@@ -3545,16 +3780,16 @@
     </row>
     <row r="99" spans="1:10" ht="21">
       <c r="A99" s="5" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="B99" s="2">
-        <v>83674</v>
+        <v>125016</v>
       </c>
       <c r="C99" s="2">
-        <v>82085</v>
+        <v>122633</v>
       </c>
       <c r="D99" s="2">
-        <v>1588</v>
+        <v>2382</v>
       </c>
       <c r="E99" s="4">
         <v>2017</v>
@@ -3569,16 +3804,16 @@
     </row>
     <row r="100" spans="1:10" ht="21">
       <c r="A100" s="5" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="B100" s="2">
-        <v>68381</v>
+        <v>102348</v>
       </c>
       <c r="C100" s="2">
-        <v>55429</v>
+        <v>82813</v>
       </c>
       <c r="D100" s="2">
-        <v>12952</v>
+        <v>19535</v>
       </c>
       <c r="E100" s="4">
         <v>2017</v>
@@ -3593,16 +3828,16 @@
     </row>
     <row r="101" spans="1:10" ht="21">
       <c r="A101" s="5" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="B101" s="2">
-        <v>69953</v>
+        <v>104648</v>
       </c>
       <c r="C101" s="2">
-        <v>68804</v>
+        <v>102925</v>
       </c>
       <c r="D101" s="2">
-        <v>1149</v>
+        <v>1723</v>
       </c>
       <c r="E101" s="4">
         <v>2017</v>
@@ -3617,16 +3852,16 @@
     </row>
     <row r="102" spans="1:10" ht="21">
       <c r="A102" s="5" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="B102" s="2">
-        <v>12133</v>
+        <v>18153</v>
       </c>
       <c r="C102" s="2">
-        <v>8811</v>
+        <v>13174</v>
       </c>
       <c r="D102" s="2">
-        <v>3322</v>
+        <v>4979</v>
       </c>
       <c r="E102" s="4">
         <v>2017</v>
@@ -3641,16 +3876,16 @@
     </row>
     <row r="103" spans="1:10" ht="21">
       <c r="A103" s="5" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="B103" s="2">
-        <v>332648</v>
+        <v>498287</v>
       </c>
       <c r="C103" s="2">
-        <v>56649</v>
+        <v>84550</v>
       </c>
       <c r="D103" s="2">
-        <v>275999</v>
+        <v>413737</v>
       </c>
       <c r="E103" s="4">
         <v>2017</v>
@@ -3665,16 +3900,16 @@
     </row>
     <row r="104" spans="1:10" ht="21">
       <c r="A104" s="5" t="s">
-        <v>232</v>
+        <v>108</v>
       </c>
       <c r="B104" s="2">
-        <v>299206</v>
+        <v>447540</v>
       </c>
       <c r="C104" s="2">
-        <v>57724</v>
+        <v>86222</v>
       </c>
       <c r="D104" s="2">
-        <v>241482</v>
+        <v>361317</v>
       </c>
       <c r="E104" s="4">
         <v>2017</v>
@@ -3689,16 +3924,16 @@
     </row>
     <row r="105" spans="1:10" ht="21">
       <c r="A105" s="5" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="B105" s="2">
-        <v>43781</v>
+        <v>65413</v>
       </c>
       <c r="C105" s="2">
-        <v>25434</v>
+        <v>38018</v>
       </c>
       <c r="D105" s="2">
-        <v>18347</v>
+        <v>27394</v>
       </c>
       <c r="E105" s="4">
         <v>2017</v>
@@ -3713,16 +3948,16 @@
     </row>
     <row r="106" spans="1:10" ht="21">
       <c r="A106" s="5" t="s">
-        <v>233</v>
+        <v>110</v>
       </c>
       <c r="B106" s="2">
-        <v>4363</v>
+        <v>6517</v>
       </c>
       <c r="C106" s="2">
-        <v>4001</v>
+        <v>5975</v>
       </c>
       <c r="D106" s="3">
-        <v>362</v>
+        <v>542</v>
       </c>
       <c r="E106" s="4">
         <v>2017</v>
@@ -3737,16 +3972,16 @@
     </row>
     <row r="107" spans="1:10" ht="21">
       <c r="A107" s="5" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="B107" s="3">
-        <v>413</v>
+        <v>615</v>
       </c>
       <c r="C107" s="3">
-        <v>413</v>
+        <v>615</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E107" s="4">
         <v>2017</v>
@@ -3761,16 +3996,16 @@
     </row>
     <row r="108" spans="1:10" ht="21">
       <c r="A108" s="5" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="B108" s="2">
-        <v>1611</v>
+        <v>2406</v>
       </c>
       <c r="C108" s="2">
-        <v>1582</v>
+        <v>2363</v>
       </c>
       <c r="D108" s="3">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="E108" s="4">
         <v>2017</v>
@@ -3785,16 +4020,16 @@
     </row>
     <row r="109" spans="1:10" ht="21">
       <c r="A109" s="5" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="B109" s="2">
-        <v>19965</v>
+        <v>29896</v>
       </c>
       <c r="C109" s="2">
-        <v>3284</v>
+        <v>4917</v>
       </c>
       <c r="D109" s="2">
-        <v>16681</v>
+        <v>24979</v>
       </c>
       <c r="E109" s="4">
         <v>2017</v>
@@ -3809,16 +4044,16 @@
     </row>
     <row r="110" spans="1:10" ht="21">
       <c r="A110" s="5" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="B110" s="2">
-        <v>1360</v>
+        <v>2031</v>
       </c>
       <c r="C110" s="2">
-        <v>1351</v>
+        <v>2018</v>
       </c>
       <c r="D110" s="3">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E110" s="4">
         <v>2017</v>
@@ -3833,16 +4068,16 @@
     </row>
     <row r="111" spans="1:10" ht="21">
       <c r="A111" s="5" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="B111" s="2">
-        <v>55890</v>
+        <v>83701</v>
       </c>
       <c r="C111" s="2">
-        <v>3525</v>
+        <v>5285</v>
       </c>
       <c r="D111" s="2">
-        <v>52365</v>
+        <v>78416</v>
       </c>
       <c r="E111" s="4">
         <v>2017</v>
@@ -3857,16 +4092,16 @@
     </row>
     <row r="112" spans="1:10" ht="21">
       <c r="A112" s="5" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="B112" s="3">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="C112" s="3">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E112" s="4">
         <v>2017</v>
@@ -3881,16 +4116,16 @@
     </row>
     <row r="113" spans="1:10" ht="21">
       <c r="A113" s="5" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="B113" s="2">
-        <v>1327779</v>
+        <v>1990660</v>
       </c>
       <c r="C113" s="2">
-        <v>899830</v>
+        <v>1347087</v>
       </c>
       <c r="D113" s="2">
-        <v>427950</v>
+        <v>643572</v>
       </c>
       <c r="E113" s="4">
         <v>2017</v>
@@ -3905,16 +4140,16 @@
     </row>
     <row r="114" spans="1:10" ht="21">
       <c r="A114" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="B114" s="2">
-        <v>596331</v>
+        <v>895741</v>
       </c>
       <c r="C114" s="2">
-        <v>313158</v>
+        <v>468650</v>
       </c>
       <c r="D114" s="2">
-        <v>283173</v>
+        <v>427091</v>
       </c>
       <c r="E114" s="4">
         <v>2017</v>
@@ -3929,16 +4164,16 @@
     </row>
     <row r="115" spans="1:10" ht="21">
       <c r="A115" s="5" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="B115" s="2">
-        <v>4869790</v>
+        <v>7288030</v>
       </c>
       <c r="C115" s="2">
-        <v>3557684</v>
+        <v>5320054</v>
       </c>
       <c r="D115" s="2">
-        <v>1312106</v>
+        <v>1967976</v>
       </c>
       <c r="E115" s="4">
         <v>2017</v>
@@ -3953,16 +4188,16 @@
     </row>
     <row r="116" spans="1:10" ht="21">
       <c r="A116" s="5" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="B116" s="2">
-        <v>9850235</v>
+        <v>14823569</v>
       </c>
       <c r="C116" s="2">
-        <v>3920576</v>
+        <v>5870074</v>
       </c>
       <c r="D116" s="2">
-        <v>5929659</v>
+        <v>8953495</v>
       </c>
       <c r="E116" s="4">
         <v>2017</v>
@@ -3977,16 +4212,16 @@
     </row>
     <row r="117" spans="1:10" ht="21">
       <c r="A117" s="5" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="B117" s="2">
-        <v>3340988</v>
+        <v>5016819</v>
       </c>
       <c r="C117" s="2">
-        <v>1513364</v>
+        <v>2265212</v>
       </c>
       <c r="D117" s="2">
-        <v>1827624</v>
+        <v>2751607</v>
       </c>
       <c r="E117" s="4">
         <v>2017</v>
@@ -4001,16 +4236,16 @@
     </row>
     <row r="118" spans="1:10" ht="21">
       <c r="A118" s="5" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="B118" s="2">
-        <v>660401</v>
+        <v>989614</v>
       </c>
       <c r="C118" s="2">
-        <v>200565</v>
+        <v>299927</v>
       </c>
       <c r="D118" s="2">
-        <v>459837</v>
+        <v>689687</v>
       </c>
       <c r="E118" s="4">
         <v>2017</v>
@@ -4025,16 +4260,16 @@
     </row>
     <row r="119" spans="1:10" ht="21">
       <c r="A119" s="5" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="B119" s="2">
-        <v>2764698</v>
+        <v>4155142</v>
       </c>
       <c r="C119" s="2">
-        <v>1542436</v>
+        <v>2309486</v>
       </c>
       <c r="D119" s="2">
-        <v>1222262</v>
+        <v>1845656</v>
       </c>
       <c r="E119" s="4">
         <v>2017</v>
@@ -4049,16 +4284,16 @@
     </row>
     <row r="120" spans="1:10" ht="21">
       <c r="A120" s="5" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="B120" s="2">
-        <v>51970</v>
+        <v>77905</v>
       </c>
       <c r="C120" s="2">
-        <v>35152</v>
+        <v>52603</v>
       </c>
       <c r="D120" s="2">
-        <v>16819</v>
+        <v>25302</v>
       </c>
       <c r="E120" s="4">
         <v>2017</v>
@@ -4073,16 +4308,16 @@
     </row>
     <row r="121" spans="1:10" ht="21">
       <c r="A121" s="5" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="B121" s="2">
-        <v>4634927</v>
+        <v>6939248</v>
       </c>
       <c r="C121" s="2">
-        <v>3921884</v>
+        <v>5865296</v>
       </c>
       <c r="D121" s="2">
-        <v>713043</v>
+        <v>1073952</v>
       </c>
       <c r="E121" s="4">
         <v>2017</v>
@@ -4097,16 +4332,16 @@
     </row>
     <row r="122" spans="1:10" ht="21">
       <c r="A122" s="5" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="B122" s="2">
-        <v>295702</v>
+        <v>442384</v>
       </c>
       <c r="C122" s="2">
-        <v>268549</v>
+        <v>401397</v>
       </c>
       <c r="D122" s="2">
-        <v>27154</v>
+        <v>40987</v>
       </c>
       <c r="E122" s="4">
         <v>2017</v>
@@ -4121,16 +4356,16 @@
     </row>
     <row r="123" spans="1:10" ht="21">
       <c r="A123" s="5" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="B123" s="2">
-        <v>366697</v>
+        <v>549685</v>
       </c>
       <c r="C123" s="2">
-        <v>209743</v>
+        <v>313455</v>
       </c>
       <c r="D123" s="2">
-        <v>156954</v>
+        <v>236230</v>
       </c>
       <c r="E123" s="4">
         <v>2017</v>
@@ -4145,16 +4380,16 @@
     </row>
     <row r="124" spans="1:10" ht="21">
       <c r="A124" s="5" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="B124" s="2">
-        <v>1708489</v>
+        <v>2561222</v>
       </c>
       <c r="C124" s="2">
-        <v>1217175</v>
+        <v>1821040</v>
       </c>
       <c r="D124" s="2">
-        <v>491314</v>
+        <v>740182</v>
       </c>
       <c r="E124" s="4">
         <v>2017</v>
@@ -4169,16 +4404,16 @@
     </row>
     <row r="125" spans="1:10" ht="21">
       <c r="A125" s="5" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="B125" s="2">
-        <v>31238</v>
+        <v>46730</v>
       </c>
       <c r="C125" s="2">
-        <v>22719</v>
+        <v>33970</v>
       </c>
       <c r="D125" s="2">
-        <v>8519</v>
+        <v>12760</v>
       </c>
       <c r="E125" s="4">
         <v>2017</v>
@@ -4193,16 +4428,16 @@
     </row>
     <row r="126" spans="1:10" ht="21">
       <c r="A126" s="5" t="s">
-        <v>234</v>
+        <v>130</v>
       </c>
       <c r="B126" s="3">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C126" s="3">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D126" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E126" s="4">
         <v>2017</v>
@@ -4217,16 +4452,16 @@
     </row>
     <row r="127" spans="1:10" ht="21">
       <c r="A127" s="5" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="B127" s="2">
-        <v>502678</v>
+        <v>757775</v>
       </c>
       <c r="C127" s="2">
-        <v>146693</v>
+        <v>220076</v>
       </c>
       <c r="D127" s="2">
-        <v>355985</v>
+        <v>537699</v>
       </c>
       <c r="E127" s="4">
         <v>2017</v>
@@ -4241,16 +4476,16 @@
     </row>
     <row r="128" spans="1:10" ht="21">
       <c r="A128" s="5" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="B128" s="2">
-        <v>122721</v>
+        <v>184034</v>
       </c>
       <c r="C128" s="2">
-        <v>68853</v>
+        <v>102975</v>
       </c>
       <c r="D128" s="2">
-        <v>53868</v>
+        <v>81058</v>
       </c>
       <c r="E128" s="4">
         <v>2017</v>
@@ -4265,16 +4500,16 @@
     </row>
     <row r="129" spans="1:10" ht="21">
       <c r="A129" s="5" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="B129" s="2">
-        <v>378139</v>
+        <v>568075</v>
       </c>
       <c r="C129" s="2">
-        <v>135269</v>
+        <v>202547</v>
       </c>
       <c r="D129" s="2">
-        <v>242870</v>
+        <v>365528</v>
       </c>
       <c r="E129" s="4">
         <v>2017</v>
@@ -4289,13 +4524,13 @@
     </row>
     <row r="130" spans="1:10" ht="21">
       <c r="A130" s="5" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="B130" s="3">
-        <v>289</v>
+        <v>428</v>
       </c>
       <c r="C130" s="3">
-        <v>288</v>
+        <v>427</v>
       </c>
       <c r="D130" s="3">
         <v>1</v>
@@ -4313,16 +4548,16 @@
     </row>
     <row r="131" spans="1:10" ht="21">
       <c r="A131" s="5" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="B131" s="2">
-        <v>561092</v>
+        <v>842681</v>
       </c>
       <c r="C131" s="2">
-        <v>341043</v>
+        <v>510141</v>
       </c>
       <c r="D131" s="2">
-        <v>220049</v>
+        <v>332540</v>
       </c>
       <c r="E131" s="4">
         <v>2017</v>
@@ -4337,16 +4572,16 @@
     </row>
     <row r="132" spans="1:10" ht="21">
       <c r="A132" s="5" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="B132" s="2">
-        <v>11947</v>
+        <v>17875</v>
       </c>
       <c r="C132" s="2">
-        <v>6336</v>
+        <v>9468</v>
       </c>
       <c r="D132" s="2">
-        <v>5611</v>
+        <v>8407</v>
       </c>
       <c r="E132" s="4">
         <v>2017</v>
@@ -4361,16 +4596,16 @@
     </row>
     <row r="133" spans="1:10" ht="21">
       <c r="A133" s="5" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="B133" s="2">
-        <v>8368</v>
+        <v>12570</v>
       </c>
       <c r="C133" s="2">
-        <v>2755</v>
+        <v>4131</v>
       </c>
       <c r="D133" s="2">
-        <v>5614</v>
+        <v>8440</v>
       </c>
       <c r="E133" s="4">
         <v>2017</v>
@@ -4385,16 +4620,16 @@
     </row>
     <row r="134" spans="1:10" ht="21">
       <c r="A134" s="5" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="B134" s="2">
-        <v>159183</v>
+        <v>238248</v>
       </c>
       <c r="C134" s="2">
-        <v>135895</v>
+        <v>203381</v>
       </c>
       <c r="D134" s="2">
-        <v>23288</v>
+        <v>34867</v>
       </c>
       <c r="E134" s="4">
         <v>2017</v>
@@ -4409,16 +4644,16 @@
     </row>
     <row r="135" spans="1:10" ht="21">
       <c r="A135" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="B135" s="3">
-        <v>853</v>
+        <v>139</v>
+      </c>
+      <c r="B135" s="2">
+        <v>1286</v>
       </c>
       <c r="C135" s="3">
-        <v>253</v>
+        <v>378</v>
       </c>
       <c r="D135" s="3">
-        <v>600</v>
+        <v>907</v>
       </c>
       <c r="E135" s="4">
         <v>2017</v>
@@ -4433,16 +4668,16 @@
     </row>
     <row r="136" spans="1:10" ht="21">
       <c r="A136" s="5" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="B136" s="2">
-        <v>258686</v>
+        <v>387332</v>
       </c>
       <c r="C136" s="2">
-        <v>121214</v>
+        <v>181212</v>
       </c>
       <c r="D136" s="2">
-        <v>137472</v>
+        <v>206120</v>
       </c>
       <c r="E136" s="4">
         <v>2017</v>
@@ -4457,16 +4692,16 @@
     </row>
     <row r="137" spans="1:10" ht="21">
       <c r="A137" s="5" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="B137" s="2">
-        <v>1308350</v>
+        <v>1959276</v>
       </c>
       <c r="C137" s="2">
-        <v>1077305</v>
+        <v>1611363</v>
       </c>
       <c r="D137" s="2">
-        <v>231045</v>
+        <v>347914</v>
       </c>
       <c r="E137" s="4">
         <v>2017</v>
@@ -4481,16 +4716,16 @@
     </row>
     <row r="138" spans="1:10" ht="21">
       <c r="A138" s="5" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="B138" s="2">
-        <v>340137</v>
+        <v>510445</v>
       </c>
       <c r="C138" s="2">
-        <v>230252</v>
+        <v>344727</v>
       </c>
       <c r="D138" s="2">
-        <v>109885</v>
+        <v>165718</v>
       </c>
       <c r="E138" s="4">
         <v>2017</v>
@@ -4505,16 +4740,16 @@
     </row>
     <row r="139" spans="1:10" ht="21">
       <c r="A139" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="B139" s="3">
-        <v>792</v>
+        <v>143</v>
+      </c>
+      <c r="B139" s="2">
+        <v>1199</v>
       </c>
       <c r="C139" s="3">
-        <v>210</v>
+        <v>316</v>
       </c>
       <c r="D139" s="3">
-        <v>582</v>
+        <v>883</v>
       </c>
       <c r="E139" s="4">
         <v>2017</v>
@@ -4529,16 +4764,16 @@
     </row>
     <row r="140" spans="1:10" ht="21">
       <c r="A140" s="5" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="B140" s="2">
-        <v>839995</v>
+        <v>1262171</v>
       </c>
       <c r="C140" s="2">
-        <v>369070</v>
+        <v>552086</v>
       </c>
       <c r="D140" s="2">
-        <v>470925</v>
+        <v>710084</v>
       </c>
       <c r="E140" s="4">
         <v>2017</v>
@@ -4553,16 +4788,16 @@
     </row>
     <row r="141" spans="1:10" ht="21">
       <c r="A141" s="5" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="B141" s="2">
-        <v>1779852</v>
+        <v>2670172</v>
       </c>
       <c r="C141" s="2">
-        <v>148857</v>
+        <v>222720</v>
       </c>
       <c r="D141" s="2">
-        <v>1630995</v>
+        <v>2447453</v>
       </c>
       <c r="E141" s="4">
         <v>2017</v>
@@ -4577,16 +4812,16 @@
     </row>
     <row r="142" spans="1:10" ht="21">
       <c r="A142" s="5" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="B142" s="2">
-        <v>86608</v>
+        <v>129813</v>
       </c>
       <c r="C142" s="2">
-        <v>73266</v>
+        <v>109651</v>
       </c>
       <c r="D142" s="2">
-        <v>13343</v>
+        <v>20162</v>
       </c>
       <c r="E142" s="4">
         <v>2017</v>
@@ -4601,16 +4836,16 @@
     </row>
     <row r="143" spans="1:10" ht="21">
       <c r="A143" s="5" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="B143" s="2">
-        <v>67295</v>
+        <v>100705</v>
       </c>
       <c r="C143" s="2">
-        <v>55547</v>
+        <v>82983</v>
       </c>
       <c r="D143" s="2">
-        <v>11749</v>
+        <v>17722</v>
       </c>
       <c r="E143" s="4">
         <v>2017</v>
@@ -4625,16 +4860,16 @@
     </row>
     <row r="144" spans="1:10" ht="21">
       <c r="A144" s="5" t="s">
-        <v>235</v>
+        <v>148</v>
       </c>
       <c r="B144" s="2">
-        <v>98193</v>
+        <v>146975</v>
       </c>
       <c r="C144" s="2">
-        <v>82614</v>
+        <v>123523</v>
       </c>
       <c r="D144" s="2">
-        <v>15578</v>
+        <v>23453</v>
       </c>
       <c r="E144" s="4">
         <v>2017</v>
@@ -4649,16 +4884,16 @@
     </row>
     <row r="145" spans="1:10" ht="21">
       <c r="A145" s="5" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="B145" s="2">
-        <v>55695</v>
+        <v>83160</v>
       </c>
       <c r="C145" s="2">
-        <v>53051</v>
+        <v>79195</v>
       </c>
       <c r="D145" s="2">
-        <v>2644</v>
+        <v>3965</v>
       </c>
       <c r="E145" s="4">
         <v>2017</v>
@@ -4673,16 +4908,16 @@
     </row>
     <row r="146" spans="1:10" ht="21">
       <c r="A146" s="5" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="B146" s="2">
-        <v>28032</v>
+        <v>41957</v>
       </c>
       <c r="C146" s="2">
-        <v>9612</v>
+        <v>14367</v>
       </c>
       <c r="D146" s="2">
-        <v>18420</v>
+        <v>27590</v>
       </c>
       <c r="E146" s="4">
         <v>2017</v>
@@ -4697,16 +4932,16 @@
     </row>
     <row r="147" spans="1:10" ht="21">
       <c r="A147" s="5" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="B147" s="2">
-        <v>17620</v>
+        <v>26334</v>
       </c>
       <c r="C147" s="2">
-        <v>16923</v>
-      </c>
-      <c r="D147" s="3">
-        <v>697</v>
+        <v>25292</v>
+      </c>
+      <c r="D147" s="2">
+        <v>1042</v>
       </c>
       <c r="E147" s="4">
         <v>2017</v>
@@ -4721,16 +4956,16 @@
     </row>
     <row r="148" spans="1:10" ht="21">
       <c r="A148" s="5" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="B148" s="2">
-        <v>83195</v>
+        <v>124735</v>
       </c>
       <c r="C148" s="2">
-        <v>56689</v>
+        <v>85045</v>
       </c>
       <c r="D148" s="2">
-        <v>26507</v>
+        <v>39691</v>
       </c>
       <c r="E148" s="4">
         <v>2017</v>
@@ -4745,16 +4980,16 @@
     </row>
     <row r="149" spans="1:10" ht="21">
       <c r="A149" s="5" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="B149" s="2">
-        <v>7745</v>
+        <v>11594</v>
       </c>
       <c r="C149" s="2">
-        <v>5912</v>
+        <v>8836</v>
       </c>
       <c r="D149" s="2">
-        <v>1833</v>
+        <v>2758</v>
       </c>
       <c r="E149" s="4">
         <v>2017</v>
@@ -4769,16 +5004,16 @@
     </row>
     <row r="150" spans="1:10" ht="21">
       <c r="A150" s="5" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="B150" s="2">
-        <v>5084449</v>
+        <v>7607885</v>
       </c>
       <c r="C150" s="2">
-        <v>2536084</v>
+        <v>3792844</v>
       </c>
       <c r="D150" s="2">
-        <v>2548366</v>
+        <v>3815041</v>
       </c>
       <c r="E150" s="4">
         <v>2017</v>
@@ -4793,16 +5028,16 @@
     </row>
     <row r="151" spans="1:10" ht="21">
       <c r="A151" s="5" t="s">
-        <v>236</v>
+        <v>155</v>
       </c>
       <c r="B151" s="2">
-        <v>400604</v>
+        <v>598980</v>
       </c>
       <c r="C151" s="2">
-        <v>269891</v>
+        <v>403279</v>
       </c>
       <c r="D151" s="2">
-        <v>130712</v>
+        <v>195700</v>
       </c>
       <c r="E151" s="4">
         <v>2017</v>
@@ -4817,16 +5052,16 @@
     </row>
     <row r="152" spans="1:10" ht="21">
       <c r="A152" s="5" t="s">
-        <v>237</v>
+        <v>156</v>
       </c>
       <c r="B152" s="2">
-        <v>176026</v>
+        <v>264075</v>
       </c>
       <c r="C152" s="2">
-        <v>143541</v>
+        <v>214967</v>
       </c>
       <c r="D152" s="2">
-        <v>32486</v>
+        <v>49108</v>
       </c>
       <c r="E152" s="4">
         <v>2017</v>
@@ -4841,16 +5076,16 @@
     </row>
     <row r="153" spans="1:10" ht="21">
       <c r="A153" s="5" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="B153" s="2">
-        <v>82176</v>
+        <v>123215</v>
       </c>
       <c r="C153" s="2">
-        <v>70552</v>
+        <v>105643</v>
       </c>
       <c r="D153" s="2">
-        <v>11624</v>
+        <v>17572</v>
       </c>
       <c r="E153" s="4">
         <v>2017</v>
@@ -4865,16 +5100,16 @@
     </row>
     <row r="154" spans="1:10" ht="21">
       <c r="A154" s="5" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="B154" s="2">
-        <v>799862</v>
+        <v>1199974</v>
       </c>
       <c r="C154" s="2">
-        <v>580883</v>
+        <v>869353</v>
       </c>
       <c r="D154" s="2">
-        <v>218980</v>
+        <v>330621</v>
       </c>
       <c r="E154" s="4">
         <v>2017</v>
@@ -4889,16 +5124,16 @@
     </row>
     <row r="155" spans="1:10" ht="21">
       <c r="A155" s="5" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="B155" s="2">
-        <v>319938</v>
+        <v>480284</v>
       </c>
       <c r="C155" s="2">
-        <v>172029</v>
+        <v>257564</v>
       </c>
       <c r="D155" s="2">
-        <v>147908</v>
+        <v>222719</v>
       </c>
       <c r="E155" s="4">
         <v>2017</v>
@@ -4913,16 +5148,16 @@
     </row>
     <row r="156" spans="1:10" ht="21">
       <c r="A156" s="5" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="B156" s="2">
-        <v>6662</v>
+        <v>10005</v>
       </c>
       <c r="C156" s="2">
-        <v>3900</v>
+        <v>5843</v>
       </c>
       <c r="D156" s="2">
-        <v>2763</v>
+        <v>4162</v>
       </c>
       <c r="E156" s="4">
         <v>2017</v>
@@ -4937,16 +5172,16 @@
     </row>
     <row r="157" spans="1:10" ht="21">
       <c r="A157" s="5" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="B157" s="2">
-        <v>7783</v>
+        <v>11703</v>
       </c>
       <c r="C157" s="2">
-        <v>4014</v>
+        <v>5996</v>
       </c>
       <c r="D157" s="2">
-        <v>3769</v>
+        <v>5707</v>
       </c>
       <c r="E157" s="4">
         <v>2017</v>
@@ -4961,7 +5196,7 @@
     </row>
     <row r="158" spans="1:10" ht="21">
       <c r="A158" s="5" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="B158" s="3">
         <v>0</v>
@@ -4970,7 +5205,7 @@
         <v>0</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E158" s="4">
         <v>2017</v>
@@ -4985,16 +5220,16 @@
     </row>
     <row r="159" spans="1:10" ht="21">
       <c r="A159" s="5" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="B159" s="2">
-        <v>6878</v>
+        <v>10303</v>
       </c>
       <c r="C159" s="3">
-        <v>105</v>
+        <v>156</v>
       </c>
       <c r="D159" s="2">
-        <v>6773</v>
+        <v>10146</v>
       </c>
       <c r="E159" s="4">
         <v>2017</v>
@@ -5009,16 +5244,16 @@
     </row>
     <row r="160" spans="1:10" ht="21">
       <c r="A160" s="5" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="B160" s="2">
-        <v>44610</v>
+        <v>66933</v>
       </c>
       <c r="C160" s="2">
-        <v>33466</v>
+        <v>50161</v>
       </c>
       <c r="D160" s="2">
-        <v>11145</v>
+        <v>16773</v>
       </c>
       <c r="E160" s="4">
         <v>2017</v>
@@ -5033,16 +5268,16 @@
     </row>
     <row r="161" spans="1:10" ht="21">
       <c r="A161" s="5" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="B161" s="2">
-        <v>9954</v>
+        <v>14894</v>
       </c>
       <c r="C161" s="2">
-        <v>4748</v>
+        <v>7095</v>
       </c>
       <c r="D161" s="2">
-        <v>5206</v>
+        <v>7799</v>
       </c>
       <c r="E161" s="4">
         <v>2017</v>
@@ -5057,16 +5292,16 @@
     </row>
     <row r="162" spans="1:10" ht="21">
       <c r="A162" s="5" t="s">
-        <v>238</v>
+        <v>166</v>
       </c>
       <c r="B162" s="3">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C162" s="3">
         <v>0</v>
       </c>
       <c r="D162" s="3">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E162" s="4">
         <v>2017</v>
@@ -5081,16 +5316,16 @@
     </row>
     <row r="163" spans="1:10" ht="21">
       <c r="A163" s="5" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="B163" s="2">
-        <v>15877698</v>
+        <v>23740277</v>
       </c>
       <c r="C163" s="2">
-        <v>8101291</v>
+        <v>12101467</v>
       </c>
       <c r="D163" s="2">
-        <v>7776407</v>
+        <v>11638811</v>
       </c>
       <c r="E163" s="4">
         <v>2017</v>
@@ -5105,16 +5340,16 @@
     </row>
     <row r="164" spans="1:10" ht="21">
       <c r="A164" s="5" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="B164" s="2">
-        <v>2093</v>
+        <v>3131</v>
       </c>
       <c r="C164" s="2">
-        <v>2092</v>
+        <v>3130</v>
       </c>
       <c r="D164" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E164" s="4">
         <v>2017</v>
@@ -5129,16 +5364,16 @@
     </row>
     <row r="165" spans="1:10" ht="21">
       <c r="A165" s="5" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="B165" s="2">
-        <v>837680</v>
+        <v>1251630</v>
       </c>
       <c r="C165" s="2">
-        <v>549971</v>
+        <v>821438</v>
       </c>
       <c r="D165" s="2">
-        <v>287709</v>
+        <v>430192</v>
       </c>
       <c r="E165" s="4">
         <v>2017</v>
@@ -5153,13 +5388,13 @@
     </row>
     <row r="166" spans="1:10" ht="21">
       <c r="A166" s="5" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="B166" s="2">
-        <v>1817</v>
+        <v>2714</v>
       </c>
       <c r="C166" s="2">
-        <v>1817</v>
+        <v>2714</v>
       </c>
       <c r="D166" s="3">
         <v>0</v>
@@ -5177,16 +5412,16 @@
     </row>
     <row r="167" spans="1:10" ht="21">
       <c r="A167" s="5" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="B167" s="2">
-        <v>10490</v>
+        <v>15666</v>
       </c>
       <c r="C167" s="2">
-        <v>7702</v>
+        <v>11490</v>
       </c>
       <c r="D167" s="2">
-        <v>2788</v>
+        <v>4175</v>
       </c>
       <c r="E167" s="4">
         <v>2017</v>
@@ -5201,16 +5436,16 @@
     </row>
     <row r="168" spans="1:10" ht="21">
       <c r="A168" s="5" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="B168" s="2">
-        <v>11889</v>
+        <v>17770</v>
       </c>
       <c r="C168" s="2">
-        <v>10620</v>
+        <v>15869</v>
       </c>
       <c r="D168" s="2">
-        <v>1269</v>
+        <v>1901</v>
       </c>
       <c r="E168" s="4">
         <v>2017</v>
@@ -5225,16 +5460,16 @@
     </row>
     <row r="169" spans="1:10" ht="21">
       <c r="A169" s="5" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="B169" s="2">
-        <v>5460</v>
+        <v>8161</v>
       </c>
       <c r="C169" s="2">
-        <v>5453</v>
+        <v>8150</v>
       </c>
       <c r="D169" s="3">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E169" s="4">
         <v>2017</v>
@@ -5249,16 +5484,16 @@
     </row>
     <row r="170" spans="1:10" ht="21">
       <c r="A170" s="5" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="B170" s="2">
-        <v>62069</v>
+        <v>92733</v>
       </c>
       <c r="C170" s="2">
-        <v>43768</v>
+        <v>65331</v>
       </c>
       <c r="D170" s="2">
-        <v>18301</v>
+        <v>27402</v>
       </c>
       <c r="E170" s="4">
         <v>2017</v>
@@ -5273,16 +5508,16 @@
     </row>
     <row r="171" spans="1:10" ht="21">
       <c r="A171" s="5" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="B171" s="3">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="C171" s="3">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="D171" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E171" s="4">
         <v>2017</v>
@@ -5297,16 +5532,16 @@
     </row>
     <row r="172" spans="1:10" ht="21">
       <c r="A172" s="5" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="B172" s="2">
-        <v>5507166</v>
+        <v>8235986</v>
       </c>
       <c r="C172" s="2">
-        <v>1780287</v>
+        <v>2659052</v>
       </c>
       <c r="D172" s="2">
-        <v>3726879</v>
+        <v>5576934</v>
       </c>
       <c r="E172" s="4">
         <v>2017</v>
@@ -5321,13 +5556,13 @@
     </row>
     <row r="173" spans="1:10" ht="21">
       <c r="A173" s="5" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="B173" s="3">
-        <v>474</v>
+        <v>707</v>
       </c>
       <c r="C173" s="3">
-        <v>474</v>
+        <v>707</v>
       </c>
       <c r="D173" s="3">
         <v>0</v>
@@ -5345,16 +5580,16 @@
     </row>
     <row r="174" spans="1:10" ht="21">
       <c r="A174" s="5" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="B174" s="2">
-        <v>2127477</v>
+        <v>3183958</v>
       </c>
       <c r="C174" s="2">
-        <v>832833</v>
+        <v>1244512</v>
       </c>
       <c r="D174" s="2">
-        <v>1294644</v>
+        <v>1939446</v>
       </c>
       <c r="E174" s="4">
         <v>2017</v>
@@ -5369,16 +5604,16 @@
     </row>
     <row r="175" spans="1:10" ht="21">
       <c r="A175" s="5" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="B175" s="2">
-        <v>638328</v>
+        <v>954043</v>
       </c>
       <c r="C175" s="2">
-        <v>461844</v>
+        <v>689753</v>
       </c>
       <c r="D175" s="2">
-        <v>176483</v>
+        <v>264290</v>
       </c>
       <c r="E175" s="4">
         <v>2017</v>
@@ -5393,16 +5628,16 @@
     </row>
     <row r="176" spans="1:10" ht="21">
       <c r="A176" s="5" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="B176" s="2">
-        <v>2007</v>
+        <v>3000</v>
       </c>
       <c r="C176" s="2">
-        <v>2001</v>
+        <v>2991</v>
       </c>
       <c r="D176" s="3">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E176" s="4">
         <v>2017</v>
@@ -5417,16 +5652,16 @@
     </row>
     <row r="177" spans="1:10" ht="21">
       <c r="A177" s="5" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="B177" s="2">
-        <v>141442</v>
+        <v>211209</v>
       </c>
       <c r="C177" s="2">
-        <v>90750</v>
+        <v>135446</v>
       </c>
       <c r="D177" s="2">
-        <v>50692</v>
+        <v>75763</v>
       </c>
       <c r="E177" s="4">
         <v>2017</v>
@@ -5441,16 +5676,16 @@
     </row>
     <row r="178" spans="1:10" ht="21">
       <c r="A178" s="5" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="B178" s="2">
-        <v>84329</v>
+        <v>126548</v>
       </c>
       <c r="C178" s="2">
-        <v>65009</v>
+        <v>97444</v>
       </c>
       <c r="D178" s="2">
-        <v>19319</v>
+        <v>29105</v>
       </c>
       <c r="E178" s="4">
         <v>2017</v>
@@ -5465,13 +5700,13 @@
     </row>
     <row r="179" spans="1:10" ht="21">
       <c r="A179" s="5" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="B179" s="2">
-        <v>1940</v>
+        <v>2899</v>
       </c>
       <c r="C179" s="2">
-        <v>1940</v>
+        <v>2898</v>
       </c>
       <c r="D179" s="3">
         <v>0</v>
@@ -5489,16 +5724,16 @@
     </row>
     <row r="180" spans="1:10" ht="21">
       <c r="A180" s="5" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="B180" s="2">
-        <v>115870</v>
+        <v>173125</v>
       </c>
       <c r="C180" s="2">
-        <v>106406</v>
+        <v>158944</v>
       </c>
       <c r="D180" s="2">
-        <v>9464</v>
+        <v>14181</v>
       </c>
       <c r="E180" s="4">
         <v>2017</v>
@@ -5513,16 +5748,16 @@
     </row>
     <row r="181" spans="1:10" ht="21">
       <c r="A181" s="5" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="B181" s="2">
-        <v>230218</v>
+        <v>344084</v>
       </c>
       <c r="C181" s="2">
-        <v>179469</v>
+        <v>268110</v>
       </c>
       <c r="D181" s="2">
-        <v>50749</v>
+        <v>75974</v>
       </c>
       <c r="E181" s="4">
         <v>2017</v>
@@ -5537,16 +5772,16 @@
     </row>
     <row r="182" spans="1:10" ht="21">
       <c r="A182" s="5" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="B182" s="3">
-        <v>644</v>
+        <v>963</v>
       </c>
       <c r="C182" s="3">
-        <v>621</v>
+        <v>928</v>
       </c>
       <c r="D182" s="3">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="E182" s="4">
         <v>2017</v>
@@ -5561,16 +5796,16 @@
     </row>
     <row r="183" spans="1:10" ht="21">
       <c r="A183" s="5" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
       <c r="B183" s="3">
-        <v>457</v>
+        <v>682</v>
       </c>
       <c r="C183" s="3">
-        <v>457</v>
+        <v>682</v>
       </c>
       <c r="D183" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E183" s="4">
         <v>2017</v>
@@ -5585,16 +5820,16 @@
     </row>
     <row r="184" spans="1:10" ht="21">
       <c r="A184" s="5" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="B184" s="2">
-        <v>2515</v>
+        <v>3754</v>
       </c>
       <c r="C184" s="2">
-        <v>2514</v>
+        <v>3754</v>
       </c>
       <c r="D184" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E184" s="4">
         <v>2017</v>
@@ -5609,16 +5844,16 @@
     </row>
     <row r="185" spans="1:10" ht="21">
       <c r="A185" s="5" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="B185" s="2">
-        <v>129655</v>
+        <v>193548</v>
       </c>
       <c r="C185" s="2">
-        <v>124150</v>
+        <v>185315</v>
       </c>
       <c r="D185" s="2">
-        <v>5505</v>
+        <v>8233</v>
       </c>
       <c r="E185" s="4">
         <v>2017</v>
@@ -5633,16 +5868,16 @@
     </row>
     <row r="186" spans="1:10" ht="21">
       <c r="A186" s="5" t="s">
-        <v>172</v>
+        <v>190</v>
       </c>
       <c r="B186" s="2">
-        <v>12777</v>
+        <v>19102</v>
       </c>
       <c r="C186" s="2">
-        <v>9833</v>
+        <v>14693</v>
       </c>
       <c r="D186" s="2">
-        <v>2944</v>
+        <v>4409</v>
       </c>
       <c r="E186" s="4">
         <v>2017</v>
@@ -5657,16 +5892,16 @@
     </row>
     <row r="187" spans="1:10" ht="21">
       <c r="A187" s="5" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="B187" s="2">
-        <v>35116</v>
+        <v>52475</v>
       </c>
       <c r="C187" s="2">
-        <v>34619</v>
+        <v>51735</v>
       </c>
       <c r="D187" s="3">
-        <v>497</v>
+        <v>740</v>
       </c>
       <c r="E187" s="4">
         <v>2017</v>
@@ -5681,16 +5916,16 @@
     </row>
     <row r="188" spans="1:10" ht="21">
       <c r="A188" s="5" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c r="B188" s="2">
-        <v>49298</v>
+        <v>73576</v>
       </c>
       <c r="C188" s="2">
-        <v>47702</v>
+        <v>71189</v>
       </c>
       <c r="D188" s="2">
-        <v>1596</v>
+        <v>2388</v>
       </c>
       <c r="E188" s="4">
         <v>2017</v>
@@ -5705,16 +5940,16 @@
     </row>
     <row r="189" spans="1:10" ht="21">
       <c r="A189" s="5" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="B189" s="2">
-        <v>34084</v>
+        <v>50899</v>
       </c>
       <c r="C189" s="2">
-        <v>33907</v>
+        <v>50634</v>
       </c>
       <c r="D189" s="3">
-        <v>177</v>
+        <v>265</v>
       </c>
       <c r="E189" s="4">
         <v>2017</v>
@@ -5729,16 +5964,16 @@
     </row>
     <row r="190" spans="1:10" ht="21">
       <c r="A190" s="5" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="B190" s="2">
-        <v>1970</v>
+        <v>2941</v>
       </c>
       <c r="C190" s="2">
-        <v>1968</v>
+        <v>2938</v>
       </c>
       <c r="D190" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E190" s="4">
         <v>2017</v>
@@ -5753,16 +5988,16 @@
     </row>
     <row r="191" spans="1:10" ht="21">
       <c r="A191" s="5" t="s">
-        <v>177</v>
+        <v>195</v>
       </c>
       <c r="B191" s="2">
-        <v>2984794</v>
+        <v>4460452</v>
       </c>
       <c r="C191" s="2">
-        <v>2338337</v>
+        <v>3493450</v>
       </c>
       <c r="D191" s="2">
-        <v>646457</v>
+        <v>967002</v>
       </c>
       <c r="E191" s="4">
         <v>2017</v>
@@ -5777,16 +6012,16 @@
     </row>
     <row r="192" spans="1:10" ht="21">
       <c r="A192" s="5" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="B192" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C192" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D192" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E192" s="4">
         <v>2017</v>
@@ -5801,16 +6036,16 @@
     </row>
     <row r="193" spans="1:10" ht="21">
       <c r="A193" s="5" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="B193" s="2">
-        <v>38917</v>
+        <v>58096</v>
       </c>
       <c r="C193" s="2">
-        <v>35535</v>
+        <v>53033</v>
       </c>
       <c r="D193" s="2">
-        <v>3382</v>
+        <v>5063</v>
       </c>
       <c r="E193" s="4">
         <v>2017</v>
@@ -5825,16 +6060,16 @@
     </row>
     <row r="194" spans="1:10" ht="21">
       <c r="A194" s="5" t="s">
-        <v>180</v>
+        <v>198</v>
       </c>
       <c r="B194" s="2">
-        <v>460705</v>
+        <v>687384</v>
       </c>
       <c r="C194" s="2">
-        <v>456734</v>
+        <v>681439</v>
       </c>
       <c r="D194" s="2">
-        <v>3971</v>
+        <v>5945</v>
       </c>
       <c r="E194" s="4">
         <v>2017</v>
@@ -5849,16 +6084,16 @@
     </row>
     <row r="195" spans="1:10" ht="21">
       <c r="A195" s="5" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="B195" s="2">
-        <v>101698</v>
+        <v>151934</v>
       </c>
       <c r="C195" s="2">
-        <v>99683</v>
+        <v>148919</v>
       </c>
       <c r="D195" s="2">
-        <v>2015</v>
+        <v>3015</v>
       </c>
       <c r="E195" s="4">
         <v>2017</v>
@@ -5873,16 +6108,16 @@
     </row>
     <row r="196" spans="1:10" ht="21">
       <c r="A196" s="5" t="s">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="B196" s="2">
-        <v>1181220</v>
+        <v>1767059</v>
       </c>
       <c r="C196" s="2">
-        <v>399102</v>
+        <v>596281</v>
       </c>
       <c r="D196" s="2">
-        <v>782118</v>
+        <v>1170778</v>
       </c>
       <c r="E196" s="4">
         <v>2017</v>
@@ -5897,16 +6132,16 @@
     </row>
     <row r="197" spans="1:10" ht="21">
       <c r="A197" s="5" t="s">
-        <v>239</v>
+        <v>201</v>
       </c>
       <c r="B197" s="2">
-        <v>61412</v>
+        <v>92059</v>
       </c>
       <c r="C197" s="2">
-        <v>37883</v>
+        <v>56605</v>
       </c>
       <c r="D197" s="2">
-        <v>23529</v>
+        <v>35454</v>
       </c>
       <c r="E197" s="4">
         <v>2017</v>
@@ -5921,7 +6156,7 @@
     </row>
     <row r="198" spans="1:10" ht="21">
       <c r="A198" s="5" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="B198" s="3">
         <v>0</v>
@@ -5930,7 +6165,7 @@
         <v>0</v>
       </c>
       <c r="D198" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E198" s="4">
         <v>2017</v>
@@ -5945,16 +6180,16 @@
     </row>
     <row r="199" spans="1:10" ht="21">
       <c r="A199" s="5" t="s">
-        <v>183</v>
+        <v>203</v>
       </c>
       <c r="B199" s="2">
-        <v>2273</v>
+        <v>3399</v>
       </c>
       <c r="C199" s="2">
-        <v>2271</v>
+        <v>3396</v>
       </c>
       <c r="D199" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E199" s="4">
         <v>2017</v>
@@ -5969,16 +6204,16 @@
     </row>
     <row r="200" spans="1:10" ht="21">
       <c r="A200" s="5" t="s">
-        <v>184</v>
+        <v>204</v>
       </c>
       <c r="B200" s="3">
-        <v>432</v>
+        <v>645</v>
       </c>
       <c r="C200" s="3">
-        <v>432</v>
+        <v>645</v>
       </c>
       <c r="D200" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E200" s="4">
         <v>2017</v>
@@ -5993,16 +6228,16 @@
     </row>
     <row r="201" spans="1:10" ht="21">
       <c r="A201" s="5" t="s">
-        <v>185</v>
+        <v>205</v>
       </c>
       <c r="B201" s="3">
-        <v>356</v>
+        <v>531</v>
       </c>
       <c r="C201" s="3">
-        <v>331</v>
+        <v>493</v>
       </c>
       <c r="D201" s="3">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="E201" s="4">
         <v>2017</v>
@@ -6017,16 +6252,16 @@
     </row>
     <row r="202" spans="1:10" ht="21">
       <c r="A202" s="5" t="s">
-        <v>186</v>
+        <v>206</v>
       </c>
       <c r="B202" s="2">
-        <v>50084</v>
+        <v>74781</v>
       </c>
       <c r="C202" s="2">
-        <v>43534</v>
+        <v>64981</v>
       </c>
       <c r="D202" s="2">
-        <v>6550</v>
+        <v>9799</v>
       </c>
       <c r="E202" s="4">
         <v>2017</v>
@@ -6041,16 +6276,16 @@
     </row>
     <row r="203" spans="1:10" ht="21">
       <c r="A203" s="5" t="s">
-        <v>241</v>
+        <v>207</v>
       </c>
       <c r="B203" s="2">
-        <v>10427</v>
+        <v>15580</v>
       </c>
       <c r="C203" s="2">
-        <v>9261</v>
+        <v>13835</v>
       </c>
       <c r="D203" s="2">
-        <v>1165</v>
+        <v>1745</v>
       </c>
       <c r="E203" s="4">
         <v>2017</v>
@@ -6065,16 +6300,16 @@
     </row>
     <row r="204" spans="1:10" ht="21">
       <c r="A204" s="5" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="B204" s="2">
-        <v>72464</v>
+        <v>108353</v>
       </c>
       <c r="C204" s="2">
-        <v>48058</v>
+        <v>71858</v>
       </c>
       <c r="D204" s="2">
-        <v>24407</v>
+        <v>36496</v>
       </c>
       <c r="E204" s="4">
         <v>2017</v>
@@ -6089,13 +6324,13 @@
     </row>
     <row r="205" spans="1:10" ht="21">
       <c r="A205" s="5" t="s">
-        <v>188</v>
+        <v>209</v>
       </c>
       <c r="B205" s="3">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="C205" s="3">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="D205" s="3">
         <v>0</v>
@@ -6113,16 +6348,16 @@
     </row>
     <row r="206" spans="1:10" ht="21">
       <c r="A206" s="5" t="s">
-        <v>242</v>
+        <v>210</v>
       </c>
       <c r="B206" s="2">
-        <v>365809</v>
+        <v>546855</v>
       </c>
       <c r="C206" s="2">
-        <v>144256</v>
+        <v>215483</v>
       </c>
       <c r="D206" s="2">
-        <v>221553</v>
+        <v>331372</v>
       </c>
       <c r="E206" s="4">
         <v>2017</v>
@@ -6137,16 +6372,16 @@
     </row>
     <row r="207" spans="1:10" ht="21">
       <c r="A207" s="5" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="B207" s="2">
-        <v>495763</v>
+        <v>741734</v>
       </c>
       <c r="C207" s="2">
-        <v>84253</v>
+        <v>126100</v>
       </c>
       <c r="D207" s="2">
-        <v>411510</v>
+        <v>615634</v>
       </c>
       <c r="E207" s="4">
         <v>2017</v>
@@ -6161,13 +6396,13 @@
     </row>
     <row r="208" spans="1:10" ht="21">
       <c r="A208" s="5" t="s">
-        <v>190</v>
+        <v>212</v>
       </c>
       <c r="B208" s="3">
-        <v>193</v>
+        <v>288</v>
       </c>
       <c r="C208" s="3">
-        <v>193</v>
+        <v>288</v>
       </c>
       <c r="D208" s="3">
         <v>0</v>
@@ -6185,16 +6420,16 @@
     </row>
     <row r="209" spans="1:10" ht="21">
       <c r="A209" s="5" t="s">
-        <v>191</v>
+        <v>213</v>
       </c>
       <c r="B209" s="3">
-        <v>321</v>
+        <v>479</v>
       </c>
       <c r="C209" s="3">
-        <v>298</v>
+        <v>444</v>
       </c>
       <c r="D209" s="3">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="E209" s="4">
         <v>2017</v>
@@ -6209,7 +6444,7 @@
     </row>
     <row r="210" spans="1:10" ht="21">
       <c r="A210" s="5" t="s">
-        <v>192</v>
+        <v>214</v>
       </c>
       <c r="B210" s="3">
         <v>0</v>
@@ -6218,7 +6453,7 @@
         <v>0</v>
       </c>
       <c r="D210" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E210" s="4">
         <v>2017</v>
@@ -6233,16 +6468,16 @@
     </row>
     <row r="211" spans="1:10" ht="21">
       <c r="A211" s="5" t="s">
-        <v>193</v>
+        <v>215</v>
       </c>
       <c r="B211" s="2">
-        <v>2669</v>
+        <v>3992</v>
       </c>
       <c r="C211" s="2">
-        <v>2669</v>
+        <v>3992</v>
       </c>
       <c r="D211" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E211" s="4">
         <v>2017</v>
@@ -6257,16 +6492,16 @@
     </row>
     <row r="212" spans="1:10" ht="21">
       <c r="A212" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="B212" s="3">
-        <v>767</v>
+        <v>216</v>
+      </c>
+      <c r="B212" s="2">
+        <v>1161</v>
       </c>
       <c r="C212" s="3">
-        <v>127</v>
+        <v>190</v>
       </c>
       <c r="D212" s="3">
-        <v>640</v>
+        <v>971</v>
       </c>
       <c r="E212" s="4">
         <v>2017</v>
@@ -6281,16 +6516,16 @@
     </row>
     <row r="213" spans="1:10" ht="21">
       <c r="A213" s="5" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
       <c r="B213" s="2">
-        <v>38945861</v>
+        <v>58234859</v>
       </c>
       <c r="C213" s="2">
-        <v>29395939</v>
+        <v>43931674</v>
       </c>
       <c r="D213" s="2">
-        <v>9549922</v>
+        <v>14303184</v>
       </c>
       <c r="E213" s="4">
         <v>2017</v>
@@ -6305,16 +6540,16 @@
     </row>
     <row r="214" spans="1:10" ht="21">
       <c r="A214" s="5" t="s">
-        <v>196</v>
+        <v>218</v>
       </c>
       <c r="B214" s="2">
-        <v>3020063</v>
+        <v>4516676</v>
       </c>
       <c r="C214" s="2">
-        <v>1972082</v>
+        <v>2947593</v>
       </c>
       <c r="D214" s="2">
-        <v>1047981</v>
+        <v>1569083</v>
       </c>
       <c r="E214" s="4">
         <v>2017</v>
@@ -6329,16 +6564,16 @@
     </row>
     <row r="215" spans="1:10" ht="21">
       <c r="A215" s="5" t="s">
-        <v>197</v>
+        <v>219</v>
       </c>
       <c r="B215" s="2">
-        <v>35890293</v>
+        <v>53665407</v>
       </c>
       <c r="C215" s="2">
-        <v>27396660</v>
+        <v>40943747</v>
       </c>
       <c r="D215" s="2">
-        <v>8493633</v>
+        <v>12721660</v>
       </c>
       <c r="E215" s="4">
         <v>2017</v>
@@ -6353,16 +6588,16 @@
     </row>
     <row r="216" spans="1:10" ht="21">
       <c r="A216" s="5" t="s">
-        <v>243</v>
+        <v>220</v>
       </c>
       <c r="B216" s="2">
-        <v>8503</v>
+        <v>12733</v>
       </c>
       <c r="C216" s="3">
-        <v>195</v>
+        <v>292</v>
       </c>
       <c r="D216" s="2">
-        <v>8308</v>
+        <v>12441</v>
       </c>
       <c r="E216" s="4">
         <v>2017</v>
@@ -6377,13 +6612,13 @@
     </row>
     <row r="217" spans="1:10" ht="21">
       <c r="A217" s="5" t="s">
-        <v>198</v>
+        <v>221</v>
       </c>
       <c r="B217" s="2">
-        <v>26991</v>
+        <v>40025</v>
       </c>
       <c r="C217" s="2">
-        <v>26991</v>
+        <v>40025</v>
       </c>
       <c r="D217" s="3">
         <v>0</v>
@@ -6401,16 +6636,16 @@
     </row>
     <row r="218" spans="1:10" ht="21">
       <c r="A218" s="5" t="s">
-        <v>199</v>
+        <v>222</v>
       </c>
       <c r="B218" s="3">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C218" s="3">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D218" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E218" s="4">
         <v>2017</v>
@@ -6425,16 +6660,16 @@
     </row>
     <row r="219" spans="1:10" ht="21">
       <c r="A219" s="5" t="s">
-        <v>244</v>
+        <v>223</v>
       </c>
       <c r="B219" s="2">
-        <v>9312245</v>
+        <v>13940596</v>
       </c>
       <c r="C219" s="2">
-        <v>2907813</v>
+        <v>4349618</v>
       </c>
       <c r="D219" s="2">
-        <v>6404432</v>
+        <v>9590978</v>
       </c>
       <c r="E219" s="4">
         <v>2017</v>
@@ -6449,16 +6684,16 @@
     </row>
     <row r="220" spans="1:10" ht="21">
       <c r="A220" s="5" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
       <c r="B220" s="2">
-        <v>8124366</v>
+        <v>12162543</v>
       </c>
       <c r="C220" s="2">
-        <v>2445795</v>
+        <v>3659201</v>
       </c>
       <c r="D220" s="2">
-        <v>5678570</v>
+        <v>8503342</v>
       </c>
       <c r="E220" s="4">
         <v>2017</v>
@@ -6473,16 +6708,16 @@
     </row>
     <row r="221" spans="1:10" ht="21">
       <c r="A221" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="B221" s="3">
-        <v>698</v>
+        <v>225</v>
+      </c>
+      <c r="B221" s="2">
+        <v>1044</v>
       </c>
       <c r="C221" s="3">
-        <v>558</v>
+        <v>834</v>
       </c>
       <c r="D221" s="3">
-        <v>140</v>
+        <v>210</v>
       </c>
       <c r="E221" s="4">
         <v>2017</v>
@@ -6497,16 +6732,16 @@
     </row>
     <row r="222" spans="1:10" ht="21">
       <c r="A222" s="5" t="s">
-        <v>200</v>
+        <v>226</v>
       </c>
       <c r="B222" s="2">
-        <v>21053</v>
+        <v>31441</v>
       </c>
       <c r="C222" s="2">
-        <v>19951</v>
+        <v>29790</v>
       </c>
       <c r="D222" s="2">
-        <v>1103</v>
+        <v>1651</v>
       </c>
       <c r="E222" s="4">
         <v>2017</v>
@@ -6521,16 +6756,16 @@
     </row>
     <row r="223" spans="1:10" ht="21">
       <c r="A223" s="5" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C223" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D223" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E223" s="4">
         <v>2017</v>
@@ -6545,16 +6780,16 @@
     </row>
     <row r="224" spans="1:10" ht="21">
       <c r="A224" s="5" t="s">
-        <v>202</v>
+        <v>228</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C224" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D224" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E224" s="4">
         <v>2017</v>
@@ -6569,16 +6804,16 @@
     </row>
     <row r="225" spans="1:10" ht="21">
       <c r="A225" s="5" t="s">
-        <v>247</v>
+        <v>229</v>
       </c>
       <c r="B225" s="3">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="C225" s="3">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="D225" s="3">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E225" s="4">
         <v>2017</v>
@@ -6593,16 +6828,16 @@
     </row>
     <row r="226" spans="1:10" ht="21">
       <c r="A226" s="5" t="s">
-        <v>203</v>
+        <v>230</v>
       </c>
       <c r="B226" s="2">
-        <v>60859</v>
+        <v>91081</v>
       </c>
       <c r="C226" s="2">
-        <v>5821</v>
+        <v>8701</v>
       </c>
       <c r="D226" s="2">
-        <v>55037</v>
+        <v>82380</v>
       </c>
       <c r="E226" s="4">
         <v>2017</v>
@@ -6617,16 +6852,16 @@
     </row>
     <row r="227" spans="1:10" ht="21">
       <c r="A227" s="5" t="s">
-        <v>204</v>
+        <v>231</v>
       </c>
       <c r="B227" s="2">
-        <v>5250</v>
+        <v>7865</v>
       </c>
       <c r="C227" s="2">
-        <v>4558</v>
-      </c>
-      <c r="D227" s="3">
-        <v>692</v>
+        <v>6829</v>
+      </c>
+      <c r="D227" s="2">
+        <v>1036</v>
       </c>
       <c r="E227" s="4">
         <v>2017</v>
@@ -6641,16 +6876,16 @@
     </row>
     <row r="228" spans="1:10" ht="21">
       <c r="A228" s="5" t="s">
-        <v>205</v>
+        <v>232</v>
       </c>
       <c r="B228" s="2">
-        <v>801872</v>
+        <v>1201118</v>
       </c>
       <c r="C228" s="2">
-        <v>315317</v>
+        <v>471531</v>
       </c>
       <c r="D228" s="2">
-        <v>486554</v>
+        <v>729587</v>
       </c>
       <c r="E228" s="4">
         <v>2017</v>
@@ -6665,13 +6900,13 @@
     </row>
     <row r="229" spans="1:10" ht="21">
       <c r="A229" s="5" t="s">
-        <v>206</v>
+        <v>233</v>
       </c>
       <c r="B229" s="3">
-        <v>103</v>
+        <v>153</v>
       </c>
       <c r="C229" s="3">
-        <v>103</v>
+        <v>153</v>
       </c>
       <c r="D229" s="3">
         <v>0</v>
@@ -6689,16 +6924,16 @@
     </row>
     <row r="230" spans="1:10" ht="21">
       <c r="A230" s="5" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="B230" s="2">
-        <v>179018</v>
+        <v>267713</v>
       </c>
       <c r="C230" s="2">
-        <v>42614</v>
+        <v>63695</v>
       </c>
       <c r="D230" s="2">
-        <v>136404</v>
+        <v>204018</v>
       </c>
       <c r="E230" s="4">
         <v>2017</v>
@@ -6713,16 +6948,16 @@
     </row>
     <row r="231" spans="1:10" ht="21">
       <c r="A231" s="5" t="s">
-        <v>207</v>
+        <v>235</v>
       </c>
       <c r="B231" s="3">
-        <v>274</v>
+        <v>410</v>
       </c>
       <c r="C231" s="3">
-        <v>274</v>
+        <v>410</v>
       </c>
       <c r="D231" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E231" s="4">
         <v>2017</v>
@@ -6737,16 +6972,16 @@
     </row>
     <row r="232" spans="1:10" ht="21">
       <c r="A232" s="5" t="s">
-        <v>208</v>
+        <v>236</v>
       </c>
       <c r="B232" s="2">
-        <v>43426</v>
+        <v>64974</v>
       </c>
       <c r="C232" s="2">
-        <v>4394</v>
+        <v>6551</v>
       </c>
       <c r="D232" s="2">
-        <v>39032</v>
+        <v>58423</v>
       </c>
       <c r="E232" s="4">
         <v>2017</v>
@@ -6761,16 +6996,16 @@
     </row>
     <row r="233" spans="1:10" ht="21">
       <c r="A233" s="5" t="s">
-        <v>209</v>
+        <v>237</v>
       </c>
       <c r="B233" s="2">
-        <v>2168</v>
+        <v>3241</v>
       </c>
       <c r="C233" s="2">
-        <v>2115</v>
+        <v>3162</v>
       </c>
       <c r="D233" s="3">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="E233" s="4">
         <v>2017</v>
@@ -6785,16 +7020,16 @@
     </row>
     <row r="234" spans="1:10" ht="21">
       <c r="A234" s="5" t="s">
-        <v>210</v>
+        <v>238</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C234" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D234" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E234" s="4">
         <v>2017</v>
@@ -6809,16 +7044,16 @@
     </row>
     <row r="235" spans="1:10" ht="21">
       <c r="A235" s="5" t="s">
-        <v>211</v>
+        <v>239</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C235" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D235" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E235" s="4">
         <v>2017</v>
@@ -6833,16 +7068,16 @@
     </row>
     <row r="236" spans="1:10" ht="21">
       <c r="A236" s="5" t="s">
-        <v>212</v>
+        <v>240</v>
       </c>
       <c r="B236" s="2">
-        <v>2832</v>
+        <v>4233</v>
       </c>
       <c r="C236" s="2">
-        <v>2720</v>
+        <v>4065</v>
       </c>
       <c r="D236" s="3">
-        <v>112</v>
+        <v>168</v>
       </c>
       <c r="E236" s="4">
         <v>2017</v>
@@ -6857,16 +7092,16 @@
     </row>
     <row r="237" spans="1:10" ht="21">
       <c r="A237" s="5" t="s">
-        <v>213</v>
+        <v>241</v>
       </c>
       <c r="B237" s="3">
-        <v>634</v>
+        <v>947</v>
       </c>
       <c r="C237" s="3">
-        <v>632</v>
+        <v>944</v>
       </c>
       <c r="D237" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E237" s="4">
         <v>2017</v>
@@ -6881,16 +7116,16 @@
     </row>
     <row r="238" spans="1:10" ht="21">
       <c r="A238" s="5" t="s">
-        <v>214</v>
+        <v>242</v>
       </c>
       <c r="B238" s="2">
-        <v>3731</v>
+        <v>5610</v>
       </c>
       <c r="C238" s="2">
-        <v>3729</v>
+        <v>5608</v>
       </c>
       <c r="D238" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E238" s="4">
         <v>2017</v>
@@ -6905,16 +7140,16 @@
     </row>
     <row r="239" spans="1:10" ht="21">
       <c r="A239" s="5" t="s">
-        <v>215</v>
+        <v>243</v>
       </c>
       <c r="B239" s="2">
-        <v>2486</v>
-      </c>
-      <c r="C239" s="3">
-        <v>975</v>
+        <v>3716</v>
+      </c>
+      <c r="C239" s="2">
+        <v>1454</v>
       </c>
       <c r="D239" s="2">
-        <v>1510</v>
+        <v>2262</v>
       </c>
       <c r="E239" s="4">
         <v>2017</v>
@@ -6929,16 +7164,16 @@
     </row>
     <row r="240" spans="1:10" ht="21">
       <c r="A240" s="5" t="s">
-        <v>216</v>
+        <v>244</v>
       </c>
       <c r="B240" s="2">
-        <v>56920</v>
+        <v>84700</v>
       </c>
       <c r="C240" s="2">
-        <v>51903</v>
+        <v>77187</v>
       </c>
       <c r="D240" s="2">
-        <v>5017</v>
+        <v>7513</v>
       </c>
       <c r="E240" s="4">
         <v>2017</v>
@@ -6953,13 +7188,13 @@
     </row>
     <row r="241" spans="1:10" ht="21">
       <c r="A241" s="5" t="s">
-        <v>217</v>
+        <v>245</v>
       </c>
       <c r="B241" s="2">
-        <v>2492</v>
+        <v>3730</v>
       </c>
       <c r="C241" s="2">
-        <v>2492</v>
+        <v>3730</v>
       </c>
       <c r="D241" s="3">
         <v>0</v>
@@ -6977,16 +7212,16 @@
     </row>
     <row r="242" spans="1:10" ht="21">
       <c r="A242" s="5" t="s">
-        <v>218</v>
+        <v>246</v>
       </c>
       <c r="B242" s="2">
-        <v>3823</v>
+        <v>5718</v>
       </c>
       <c r="C242" s="2">
-        <v>3632</v>
+        <v>5433</v>
       </c>
       <c r="D242" s="3">
-        <v>190</v>
+        <v>285</v>
       </c>
       <c r="E242" s="4">
         <v>2017</v>
@@ -7001,16 +7236,16 @@
     </row>
     <row r="243" spans="1:10" ht="21">
       <c r="A243" s="5" t="s">
-        <v>219</v>
+        <v>247</v>
       </c>
       <c r="B243" s="3">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C243" s="3">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D243" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E243" s="4">
         <v>2017</v>
@@ -7025,16 +7260,16 @@
     </row>
     <row r="244" spans="1:10" ht="21">
       <c r="A244" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B244" s="3">
-        <v>194</v>
+        <v>289</v>
       </c>
       <c r="C244" s="3">
-        <v>193</v>
+        <v>287</v>
       </c>
       <c r="D244" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E244" s="4">
         <v>2017</v>
@@ -7049,16 +7284,16 @@
     </row>
     <row r="245" spans="1:10" ht="21">
       <c r="A245" s="5" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="B245" s="2">
-        <v>37455</v>
+        <v>56113</v>
       </c>
       <c r="C245" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D245" s="2">
-        <v>37455</v>
+        <v>56113</v>
       </c>
       <c r="E245" s="4">
         <v>2017</v>
